--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224215.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220115.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 09:42:44</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 11:01:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220115.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223715.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 11:01:23</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 11:37:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223715.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225215.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 11:37:29</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 11:52:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225215.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220116.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 11:52:42</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 12:01:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220116.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222216.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 12:01:41</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 12:22:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222216.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223216.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 12:22:32</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 12:32:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223216.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224116.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 12:32:27</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 12:41:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224116.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225016.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 12:41:48</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 12:50:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225016.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225916.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 12:50:39</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 12:59:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225916.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222016.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 12:59:48</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 01:20:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222016.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223616.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 01:20:09</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 01:36:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223616.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224516.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 01:36:20</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 01:45:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224516.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225416.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 01:45:58</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 01:54:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225416.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220416.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 01:54:44</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 02:04:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220416.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222216.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 02:04:23</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 02:22:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222216.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223116.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 02:22:08</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 02:31:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223116.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224016.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 02:31:17</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 02:40:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224016.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224816.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 02:40:15</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 02:48:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224816.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225716.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 02:48:57</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 02:57:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225716.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221616.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 02:57:17</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 03:16:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221616.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223416.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 03:16:11</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 03:34:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223416.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224516.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 03:34:00</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 03:45:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224516.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225416.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 03:45:23</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 03:54:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225416.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220316.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 03:54:04</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 04:03:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220316.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222016.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 04:03:21</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 04:20:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222016.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222916.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 04:20:49</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 04:29:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222916.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223816.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 04:29:33</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 04:38:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223816.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224716.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 04:38:48</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 04:47:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224716.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225516.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 04:47:13</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 04:55:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225516.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221216.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 04:55:50</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 05:12:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221216.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223116.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 05:12:27</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 05:31:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223116.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224216.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 05:31:57</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 05:42:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224216.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225116.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 05:42:49</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 05:51:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225116.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220016.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 05:51:50</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 06:00:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220016.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221816.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 06:00:20</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 06:18:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221816.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222816.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 06:18:04</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 06:28:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222816.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223816.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 06:28:47</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 06:38:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223816.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224616.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 06:38:17</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 06:46:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224616.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225516.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 06:46:59</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 06:55:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225516.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221016.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 06:55:46</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 07:10:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221016.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222916.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 07:10:39</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 07:29:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222916.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223916.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 07:29:34</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 07:39:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223916.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224916.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 07:39:37</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 07:49:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224916.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225816.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 07:49:15</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 07:58:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225816.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221216.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 07:58:02</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 08:12:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221216.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222316.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 08:12:07</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 08:23:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222316.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223316.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 08:23:21</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 08:33:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223316.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224116.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 08:33:00</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 08:41:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224116.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225016.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 08:41:00</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 08:50:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225016.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225916.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 08:50:26</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 08:59:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225916.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222616.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 08:59:31</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 09:26:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222616.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225216.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 09:26:51</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 09:52:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225216.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221116.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 09:52:24</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 10:11:43</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -5378,7 +5378,7 @@
     <t>AL</t>
   </si>
   <si>
-    <t>7.144.261,61</t>
+    <t>6.823.232,93</t>
   </si>
   <si>
     <t>Barragem Sul</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221116.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223016.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 10:11:43</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 10:30:34</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -5378,7 +5378,7 @@
     <t>AL</t>
   </si>
   <si>
-    <t>6.823.232,93</t>
+    <t>8.344.224,94</t>
   </si>
   <si>
     <t>Barragem Sul</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223016.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223916.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 10:30:34</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 10:39:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223916.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224816.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 10:39:31</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 10:48:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224816.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225716.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 10:48:25</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 10:57:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225716.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221216.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 10:57:56</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 11:12:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221216.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222616.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 11:12:26</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 11:26:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222616.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223616.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 11:26:25</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 11:36:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223616.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224416.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 11:36:08</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 11:44:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224416.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225316.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 11:44:49</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 11:53:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225316.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220316.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 11:53:47</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 12:03:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220316.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222416.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 12:03:20</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 12:24:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222416.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223516.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 12:24:34</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 12:35:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223516.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224316.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 12:35:43</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 12:43:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224316.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225216.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 12:43:52</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 12:52:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225216.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220116.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 12:52:52</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 01:01:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220116.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222816.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 01:01:23</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 01:28:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222816.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224616.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 01:28:03</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 01:46:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224616.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225416.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 01:46:15</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 01:54:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,16 +5,16 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225416.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220516.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
-  <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 01:54:53</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
+  <si>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 02:05:26</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -10308,9 +10308,6 @@
   </si>
   <si>
     <t>-43°42'31.990"</t>
-  </si>
-  <si>
-    <t>38.770,00</t>
   </si>
   <si>
     <t>Pilha 01 - P1C1</t>
@@ -57994,7 +57991,7 @@
         <v>95</v>
       </c>
       <c r="L735" s="0" t="s">
-        <v>3432</v>
+        <v>29</v>
       </c>
       <c r="M735" s="0" t="s">
         <v>147</v>
@@ -58026,7 +58023,7 @@
         <v>9327</v>
       </c>
       <c r="B736" s="0" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="C736" s="0" t="s">
         <v>716</v>
@@ -58035,10 +58032,10 @@
         <v>717</v>
       </c>
       <c r="E736" s="0" t="s">
+        <v>3433</v>
+      </c>
+      <c r="F736" s="0" t="s">
         <v>3434</v>
-      </c>
-      <c r="F736" s="0" t="s">
-        <v>3435</v>
       </c>
       <c r="G736" s="0" t="s">
         <v>26</v>
@@ -58056,7 +58053,7 @@
         <v>6</v>
       </c>
       <c r="L736" s="0" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="M736" s="0" t="s">
         <v>226</v>
@@ -58088,7 +58085,7 @@
         <v>9494</v>
       </c>
       <c r="B737" s="0" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="C737" s="0" t="s">
         <v>716</v>
@@ -58097,10 +58094,10 @@
         <v>717</v>
       </c>
       <c r="E737" s="0" t="s">
+        <v>3437</v>
+      </c>
+      <c r="F737" s="0" t="s">
         <v>3438</v>
-      </c>
-      <c r="F737" s="0" t="s">
-        <v>3439</v>
       </c>
       <c r="G737" s="0" t="s">
         <v>26</v>
@@ -58118,7 +58115,7 @@
         <v>4</v>
       </c>
       <c r="L737" s="0" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="M737" s="0" t="s">
         <v>226</v>
@@ -58150,7 +58147,7 @@
         <v>9495</v>
       </c>
       <c r="B738" s="0" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="C738" s="0" t="s">
         <v>716</v>
@@ -58159,10 +58156,10 @@
         <v>717</v>
       </c>
       <c r="E738" s="0" t="s">
+        <v>3441</v>
+      </c>
+      <c r="F738" s="0" t="s">
         <v>3442</v>
-      </c>
-      <c r="F738" s="0" t="s">
-        <v>3443</v>
       </c>
       <c r="G738" s="0" t="s">
         <v>26</v>
@@ -58212,7 +58209,7 @@
         <v>9658</v>
       </c>
       <c r="B739" s="0" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="C739" s="0" t="s">
         <v>716</v>
@@ -58221,10 +58218,10 @@
         <v>717</v>
       </c>
       <c r="E739" s="0" t="s">
+        <v>3444</v>
+      </c>
+      <c r="F739" s="0" t="s">
         <v>3445</v>
-      </c>
-      <c r="F739" s="0" t="s">
-        <v>3446</v>
       </c>
       <c r="G739" s="0" t="s">
         <v>26</v>
@@ -58274,7 +58271,7 @@
         <v>9329</v>
       </c>
       <c r="B740" s="0" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="C740" s="0" t="s">
         <v>716</v>
@@ -58283,10 +58280,10 @@
         <v>717</v>
       </c>
       <c r="E740" s="0" t="s">
+        <v>3447</v>
+      </c>
+      <c r="F740" s="0" t="s">
         <v>3448</v>
-      </c>
-      <c r="F740" s="0" t="s">
-        <v>3449</v>
       </c>
       <c r="G740" s="0" t="s">
         <v>26</v>
@@ -58304,7 +58301,7 @@
         <v>10</v>
       </c>
       <c r="L740" s="0" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="M740" s="0" t="s">
         <v>85</v>
@@ -58336,7 +58333,7 @@
         <v>9330</v>
       </c>
       <c r="B741" s="0" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="C741" s="0" t="s">
         <v>716</v>
@@ -58345,10 +58342,10 @@
         <v>717</v>
       </c>
       <c r="E741" s="0" t="s">
+        <v>3451</v>
+      </c>
+      <c r="F741" s="0" t="s">
         <v>3452</v>
-      </c>
-      <c r="F741" s="0" t="s">
-        <v>3453</v>
       </c>
       <c r="G741" s="0" t="s">
         <v>26</v>
@@ -58366,7 +58363,7 @@
         <v>13</v>
       </c>
       <c r="L741" s="0" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="M741" s="0" t="s">
         <v>85</v>
@@ -58398,7 +58395,7 @@
         <v>9331</v>
       </c>
       <c r="B742" s="0" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="C742" s="0" t="s">
         <v>716</v>
@@ -58407,10 +58404,10 @@
         <v>717</v>
       </c>
       <c r="E742" s="0" t="s">
+        <v>3455</v>
+      </c>
+      <c r="F742" s="0" t="s">
         <v>3456</v>
-      </c>
-      <c r="F742" s="0" t="s">
-        <v>3457</v>
       </c>
       <c r="G742" s="0" t="s">
         <v>26</v>
@@ -58428,7 +58425,7 @@
         <v>14</v>
       </c>
       <c r="L742" s="0" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="M742" s="0" t="s">
         <v>85</v>
@@ -58460,7 +58457,7 @@
         <v>9332</v>
       </c>
       <c r="B743" s="0" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="C743" s="0" t="s">
         <v>716</v>
@@ -58469,10 +58466,10 @@
         <v>717</v>
       </c>
       <c r="E743" s="0" t="s">
+        <v>3459</v>
+      </c>
+      <c r="F743" s="0" t="s">
         <v>3460</v>
-      </c>
-      <c r="F743" s="0" t="s">
-        <v>3461</v>
       </c>
       <c r="G743" s="0" t="s">
         <v>26</v>
@@ -58490,7 +58487,7 @@
         <v>7</v>
       </c>
       <c r="L743" s="0" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="M743" s="0" t="s">
         <v>85</v>
@@ -58522,7 +58519,7 @@
         <v>9333</v>
       </c>
       <c r="B744" s="0" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="C744" s="0" t="s">
         <v>716</v>
@@ -58531,10 +58528,10 @@
         <v>717</v>
       </c>
       <c r="E744" s="0" t="s">
+        <v>3463</v>
+      </c>
+      <c r="F744" s="0" t="s">
         <v>3464</v>
-      </c>
-      <c r="F744" s="0" t="s">
-        <v>3465</v>
       </c>
       <c r="G744" s="0" t="s">
         <v>26</v>
@@ -58552,7 +58549,7 @@
         <v>12.8</v>
       </c>
       <c r="L744" s="0" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="M744" s="0" t="s">
         <v>85</v>
@@ -58584,7 +58581,7 @@
         <v>9334</v>
       </c>
       <c r="B745" s="0" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="C745" s="0" t="s">
         <v>716</v>
@@ -58593,10 +58590,10 @@
         <v>717</v>
       </c>
       <c r="E745" s="0" t="s">
+        <v>3467</v>
+      </c>
+      <c r="F745" s="0" t="s">
         <v>3468</v>
-      </c>
-      <c r="F745" s="0" t="s">
-        <v>3469</v>
       </c>
       <c r="G745" s="0" t="s">
         <v>26</v>
@@ -58614,7 +58611,7 @@
         <v>14.5</v>
       </c>
       <c r="L745" s="0" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="M745" s="0" t="s">
         <v>85</v>
@@ -58646,7 +58643,7 @@
         <v>9335</v>
       </c>
       <c r="B746" s="0" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="C746" s="0" t="s">
         <v>716</v>
@@ -58655,10 +58652,10 @@
         <v>717</v>
       </c>
       <c r="E746" s="0" t="s">
+        <v>3471</v>
+      </c>
+      <c r="F746" s="0" t="s">
         <v>3472</v>
-      </c>
-      <c r="F746" s="0" t="s">
-        <v>3473</v>
       </c>
       <c r="G746" s="0" t="s">
         <v>26</v>
@@ -58676,7 +58673,7 @@
         <v>7</v>
       </c>
       <c r="L746" s="0" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="M746" s="0" t="s">
         <v>226</v>
@@ -58708,7 +58705,7 @@
         <v>9655</v>
       </c>
       <c r="B747" s="0" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="C747" s="0" t="s">
         <v>716</v>
@@ -58717,10 +58714,10 @@
         <v>717</v>
       </c>
       <c r="E747" s="0" t="s">
+        <v>3475</v>
+      </c>
+      <c r="F747" s="0" t="s">
         <v>3476</v>
-      </c>
-      <c r="F747" s="0" t="s">
-        <v>3477</v>
       </c>
       <c r="G747" s="0" t="s">
         <v>26</v>
@@ -58770,7 +58767,7 @@
         <v>9656</v>
       </c>
       <c r="B748" s="0" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="C748" s="0" t="s">
         <v>716</v>
@@ -58779,10 +58776,10 @@
         <v>717</v>
       </c>
       <c r="E748" s="0" t="s">
+        <v>3478</v>
+      </c>
+      <c r="F748" s="0" t="s">
         <v>3479</v>
-      </c>
-      <c r="F748" s="0" t="s">
-        <v>3480</v>
       </c>
       <c r="G748" s="0" t="s">
         <v>26</v>
@@ -58800,7 +58797,7 @@
         <v>2</v>
       </c>
       <c r="L748" s="0" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="M748" s="0" t="s">
         <v>226</v>
@@ -58832,7 +58829,7 @@
         <v>9657</v>
       </c>
       <c r="B749" s="0" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="C749" s="0" t="s">
         <v>716</v>
@@ -58841,10 +58838,10 @@
         <v>717</v>
       </c>
       <c r="E749" s="0" t="s">
+        <v>3482</v>
+      </c>
+      <c r="F749" s="0" t="s">
         <v>3483</v>
-      </c>
-      <c r="F749" s="0" t="s">
-        <v>3484</v>
       </c>
       <c r="G749" s="0" t="s">
         <v>26</v>
@@ -58894,7 +58891,7 @@
         <v>9506</v>
       </c>
       <c r="B750" s="0" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="C750" s="0" t="s">
         <v>716</v>
@@ -58903,10 +58900,10 @@
         <v>717</v>
       </c>
       <c r="E750" s="0" t="s">
+        <v>3485</v>
+      </c>
+      <c r="F750" s="0" t="s">
         <v>3486</v>
-      </c>
-      <c r="F750" s="0" t="s">
-        <v>3487</v>
       </c>
       <c r="G750" s="0" t="s">
         <v>26</v>
@@ -58924,7 +58921,7 @@
         <v>14</v>
       </c>
       <c r="L750" s="0" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="M750" s="0" t="s">
         <v>226</v>
@@ -58956,7 +58953,7 @@
         <v>9328</v>
       </c>
       <c r="B751" s="0" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="C751" s="0" t="s">
         <v>716</v>
@@ -58965,10 +58962,10 @@
         <v>717</v>
       </c>
       <c r="E751" s="0" t="s">
+        <v>3489</v>
+      </c>
+      <c r="F751" s="0" t="s">
         <v>3490</v>
-      </c>
-      <c r="F751" s="0" t="s">
-        <v>3491</v>
       </c>
       <c r="G751" s="0" t="s">
         <v>26</v>
@@ -58986,7 +58983,7 @@
         <v>9.5</v>
       </c>
       <c r="L751" s="0" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="M751" s="0" t="s">
         <v>85</v>
@@ -59018,7 +59015,7 @@
         <v>9537</v>
       </c>
       <c r="B752" s="0" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="C752" s="0" t="s">
         <v>1512</v>
@@ -59027,10 +59024,10 @@
         <v>1513</v>
       </c>
       <c r="E752" s="0" t="s">
+        <v>3493</v>
+      </c>
+      <c r="F752" s="0" t="s">
         <v>3494</v>
-      </c>
-      <c r="F752" s="0" t="s">
-        <v>3495</v>
       </c>
       <c r="G752" s="0" t="s">
         <v>26</v>
@@ -59048,7 +59045,7 @@
         <v>40</v>
       </c>
       <c r="L752" s="0" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="M752" s="0" t="s">
         <v>147</v>
@@ -59080,7 +59077,7 @@
         <v>9496</v>
       </c>
       <c r="B753" s="0" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="C753" s="0" t="s">
         <v>716</v>
@@ -59089,10 +59086,10 @@
         <v>717</v>
       </c>
       <c r="E753" s="0" t="s">
+        <v>3497</v>
+      </c>
+      <c r="F753" s="0" t="s">
         <v>3498</v>
-      </c>
-      <c r="F753" s="0" t="s">
-        <v>3499</v>
       </c>
       <c r="G753" s="0" t="s">
         <v>26</v>
@@ -59110,7 +59107,7 @@
         <v>4</v>
       </c>
       <c r="L753" s="0" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="M753" s="0" t="s">
         <v>226</v>
@@ -59142,7 +59139,7 @@
         <v>9497</v>
       </c>
       <c r="B754" s="0" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="C754" s="0" t="s">
         <v>716</v>
@@ -59151,10 +59148,10 @@
         <v>717</v>
       </c>
       <c r="E754" s="0" t="s">
+        <v>3501</v>
+      </c>
+      <c r="F754" s="0" t="s">
         <v>3502</v>
-      </c>
-      <c r="F754" s="0" t="s">
-        <v>3503</v>
       </c>
       <c r="G754" s="0" t="s">
         <v>26</v>
@@ -59172,7 +59169,7 @@
         <v>4</v>
       </c>
       <c r="L754" s="0" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="M754" s="0" t="s">
         <v>226</v>
@@ -59204,7 +59201,7 @@
         <v>9498</v>
       </c>
       <c r="B755" s="0" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="C755" s="0" t="s">
         <v>716</v>
@@ -59213,10 +59210,10 @@
         <v>717</v>
       </c>
       <c r="E755" s="0" t="s">
+        <v>3505</v>
+      </c>
+      <c r="F755" s="0" t="s">
         <v>3506</v>
-      </c>
-      <c r="F755" s="0" t="s">
-        <v>3507</v>
       </c>
       <c r="G755" s="0" t="s">
         <v>26</v>
@@ -59266,7 +59263,7 @@
         <v>9337</v>
       </c>
       <c r="B756" s="0" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="C756" s="0" t="s">
         <v>716</v>
@@ -59275,10 +59272,10 @@
         <v>717</v>
       </c>
       <c r="E756" s="0" t="s">
+        <v>3508</v>
+      </c>
+      <c r="F756" s="0" t="s">
         <v>3509</v>
-      </c>
-      <c r="F756" s="0" t="s">
-        <v>3510</v>
       </c>
       <c r="G756" s="0" t="s">
         <v>26</v>
@@ -59296,7 +59293,7 @@
         <v>5</v>
       </c>
       <c r="L756" s="0" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="M756" s="0" t="s">
         <v>85</v>
@@ -59328,7 +59325,7 @@
         <v>9338</v>
       </c>
       <c r="B757" s="0" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="C757" s="0" t="s">
         <v>716</v>
@@ -59337,10 +59334,10 @@
         <v>717</v>
       </c>
       <c r="E757" s="0" t="s">
+        <v>3512</v>
+      </c>
+      <c r="F757" s="0" t="s">
         <v>3513</v>
-      </c>
-      <c r="F757" s="0" t="s">
-        <v>3514</v>
       </c>
       <c r="G757" s="0" t="s">
         <v>26</v>
@@ -59358,7 +59355,7 @@
         <v>4</v>
       </c>
       <c r="L757" s="0" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="M757" s="0" t="s">
         <v>85</v>
@@ -59390,7 +59387,7 @@
         <v>9339</v>
       </c>
       <c r="B758" s="0" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="C758" s="0" t="s">
         <v>716</v>
@@ -59399,10 +59396,10 @@
         <v>717</v>
       </c>
       <c r="E758" s="0" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F758" s="0" t="s">
         <v>3517</v>
-      </c>
-      <c r="F758" s="0" t="s">
-        <v>3518</v>
       </c>
       <c r="G758" s="0" t="s">
         <v>26</v>
@@ -59420,7 +59417,7 @@
         <v>5</v>
       </c>
       <c r="L758" s="0" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="M758" s="0" t="s">
         <v>85</v>
@@ -59452,7 +59449,7 @@
         <v>9340</v>
       </c>
       <c r="B759" s="0" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="C759" s="0" t="s">
         <v>716</v>
@@ -59461,10 +59458,10 @@
         <v>717</v>
       </c>
       <c r="E759" s="0" t="s">
+        <v>3520</v>
+      </c>
+      <c r="F759" s="0" t="s">
         <v>3521</v>
-      </c>
-      <c r="F759" s="0" t="s">
-        <v>3522</v>
       </c>
       <c r="G759" s="0" t="s">
         <v>26</v>
@@ -59482,7 +59479,7 @@
         <v>14</v>
       </c>
       <c r="L759" s="0" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="M759" s="0" t="s">
         <v>85</v>
@@ -59514,7 +59511,7 @@
         <v>9341</v>
       </c>
       <c r="B760" s="0" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="C760" s="0" t="s">
         <v>716</v>
@@ -59523,10 +59520,10 @@
         <v>717</v>
       </c>
       <c r="E760" s="0" t="s">
+        <v>3524</v>
+      </c>
+      <c r="F760" s="0" t="s">
         <v>3525</v>
-      </c>
-      <c r="F760" s="0" t="s">
-        <v>3526</v>
       </c>
       <c r="G760" s="0" t="s">
         <v>26</v>
@@ -59576,7 +59573,7 @@
         <v>9343</v>
       </c>
       <c r="B761" s="0" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="C761" s="0" t="s">
         <v>716</v>
@@ -59585,10 +59582,10 @@
         <v>717</v>
       </c>
       <c r="E761" s="0" t="s">
+        <v>3527</v>
+      </c>
+      <c r="F761" s="0" t="s">
         <v>3528</v>
-      </c>
-      <c r="F761" s="0" t="s">
-        <v>3529</v>
       </c>
       <c r="G761" s="0" t="s">
         <v>26</v>
@@ -59606,7 +59603,7 @@
         <v>5</v>
       </c>
       <c r="L761" s="0" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="M761" s="0" t="s">
         <v>85</v>
@@ -59638,7 +59635,7 @@
         <v>9342</v>
       </c>
       <c r="B762" s="0" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="C762" s="0" t="s">
         <v>716</v>
@@ -59647,10 +59644,10 @@
         <v>717</v>
       </c>
       <c r="E762" s="0" t="s">
+        <v>3531</v>
+      </c>
+      <c r="F762" s="0" t="s">
         <v>3532</v>
-      </c>
-      <c r="F762" s="0" t="s">
-        <v>3533</v>
       </c>
       <c r="G762" s="0" t="s">
         <v>26</v>
@@ -59700,7 +59697,7 @@
         <v>9465</v>
       </c>
       <c r="B763" s="0" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="C763" s="0" t="s">
         <v>716</v>
@@ -59709,10 +59706,10 @@
         <v>717</v>
       </c>
       <c r="E763" s="0" t="s">
+        <v>3534</v>
+      </c>
+      <c r="F763" s="0" t="s">
         <v>3535</v>
-      </c>
-      <c r="F763" s="0" t="s">
-        <v>3536</v>
       </c>
       <c r="G763" s="0" t="s">
         <v>26</v>
@@ -59730,7 +59727,7 @@
         <v>5</v>
       </c>
       <c r="L763" s="0" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="M763" s="0" t="s">
         <v>226</v>
@@ -59762,7 +59759,7 @@
         <v>9659</v>
       </c>
       <c r="B764" s="0" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="C764" s="0" t="s">
         <v>716</v>
@@ -59771,10 +59768,10 @@
         <v>717</v>
       </c>
       <c r="E764" s="0" t="s">
+        <v>3538</v>
+      </c>
+      <c r="F764" s="0" t="s">
         <v>3539</v>
-      </c>
-      <c r="F764" s="0" t="s">
-        <v>3540</v>
       </c>
       <c r="G764" s="0" t="s">
         <v>26</v>
@@ -59792,7 +59789,7 @@
         <v>5</v>
       </c>
       <c r="L764" s="0" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="M764" s="0" t="s">
         <v>85</v>
@@ -59824,7 +59821,7 @@
         <v>9782</v>
       </c>
       <c r="B765" s="0" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="C765" s="0" t="s">
         <v>716</v>
@@ -59833,10 +59830,10 @@
         <v>717</v>
       </c>
       <c r="E765" s="0" t="s">
+        <v>3542</v>
+      </c>
+      <c r="F765" s="0" t="s">
         <v>3543</v>
-      </c>
-      <c r="F765" s="0" t="s">
-        <v>3544</v>
       </c>
       <c r="G765" s="0" t="s">
         <v>26</v>
@@ -59854,7 +59851,7 @@
         <v>4</v>
       </c>
       <c r="L765" s="0" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="M765" s="0" t="s">
         <v>85</v>
@@ -59886,7 +59883,7 @@
         <v>9815</v>
       </c>
       <c r="B766" s="0" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="C766" s="0" t="s">
         <v>716</v>
@@ -59895,10 +59892,10 @@
         <v>717</v>
       </c>
       <c r="E766" s="0" t="s">
+        <v>3546</v>
+      </c>
+      <c r="F766" s="0" t="s">
         <v>3547</v>
-      </c>
-      <c r="F766" s="0" t="s">
-        <v>3548</v>
       </c>
       <c r="G766" s="0" t="s">
         <v>26</v>
@@ -59916,7 +59913,7 @@
         <v>4</v>
       </c>
       <c r="L766" s="0" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="M766" s="0" t="s">
         <v>226</v>
@@ -59948,7 +59945,7 @@
         <v>9816</v>
       </c>
       <c r="B767" s="0" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="C767" s="0" t="s">
         <v>716</v>
@@ -59957,10 +59954,10 @@
         <v>717</v>
       </c>
       <c r="E767" s="0" t="s">
+        <v>3550</v>
+      </c>
+      <c r="F767" s="0" t="s">
         <v>3551</v>
-      </c>
-      <c r="F767" s="0" t="s">
-        <v>3552</v>
       </c>
       <c r="G767" s="0" t="s">
         <v>26</v>
@@ -59978,7 +59975,7 @@
         <v>3</v>
       </c>
       <c r="L767" s="0" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="M767" s="0" t="s">
         <v>226</v>
@@ -60010,7 +60007,7 @@
         <v>9449</v>
       </c>
       <c r="B768" s="0" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="C768" s="0" t="s">
         <v>716</v>
@@ -60019,10 +60016,10 @@
         <v>717</v>
       </c>
       <c r="E768" s="0" t="s">
+        <v>3554</v>
+      </c>
+      <c r="F768" s="0" t="s">
         <v>3555</v>
-      </c>
-      <c r="F768" s="0" t="s">
-        <v>3556</v>
       </c>
       <c r="G768" s="0" t="s">
         <v>26</v>
@@ -60040,7 +60037,7 @@
         <v>8</v>
       </c>
       <c r="L768" s="0" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="M768" s="0" t="s">
         <v>226</v>
@@ -60072,7 +60069,7 @@
         <v>9450</v>
       </c>
       <c r="B769" s="0" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="C769" s="0" t="s">
         <v>716</v>
@@ -60081,10 +60078,10 @@
         <v>717</v>
       </c>
       <c r="E769" s="0" t="s">
+        <v>3558</v>
+      </c>
+      <c r="F769" s="0" t="s">
         <v>3559</v>
-      </c>
-      <c r="F769" s="0" t="s">
-        <v>3560</v>
       </c>
       <c r="G769" s="0" t="s">
         <v>26</v>
@@ -60102,7 +60099,7 @@
         <v>5</v>
       </c>
       <c r="L769" s="0" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="M769" s="0" t="s">
         <v>226</v>
@@ -60134,7 +60131,7 @@
         <v>9451</v>
       </c>
       <c r="B770" s="0" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="C770" s="0" t="s">
         <v>716</v>
@@ -60143,10 +60140,10 @@
         <v>717</v>
       </c>
       <c r="E770" s="0" t="s">
+        <v>3562</v>
+      </c>
+      <c r="F770" s="0" t="s">
         <v>3563</v>
-      </c>
-      <c r="F770" s="0" t="s">
-        <v>3564</v>
       </c>
       <c r="G770" s="0" t="s">
         <v>26</v>
@@ -60164,7 +60161,7 @@
         <v>5</v>
       </c>
       <c r="L770" s="0" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="M770" s="0" t="s">
         <v>226</v>
@@ -60196,7 +60193,7 @@
         <v>9452</v>
       </c>
       <c r="B771" s="0" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
       <c r="C771" s="0" t="s">
         <v>716</v>
@@ -60205,10 +60202,10 @@
         <v>717</v>
       </c>
       <c r="E771" s="0" t="s">
+        <v>3566</v>
+      </c>
+      <c r="F771" s="0" t="s">
         <v>3567</v>
-      </c>
-      <c r="F771" s="0" t="s">
-        <v>3568</v>
       </c>
       <c r="G771" s="0" t="s">
         <v>26</v>
@@ -60226,7 +60223,7 @@
         <v>5</v>
       </c>
       <c r="L771" s="0" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="M771" s="0" t="s">
         <v>226</v>
@@ -60258,7 +60255,7 @@
         <v>9453</v>
       </c>
       <c r="B772" s="0" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="C772" s="0" t="s">
         <v>716</v>
@@ -60267,10 +60264,10 @@
         <v>717</v>
       </c>
       <c r="E772" s="0" t="s">
+        <v>3570</v>
+      </c>
+      <c r="F772" s="0" t="s">
         <v>3571</v>
-      </c>
-      <c r="F772" s="0" t="s">
-        <v>3572</v>
       </c>
       <c r="G772" s="0" t="s">
         <v>26</v>
@@ -60288,7 +60285,7 @@
         <v>6</v>
       </c>
       <c r="L772" s="0" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="M772" s="0" t="s">
         <v>226</v>
@@ -60320,7 +60317,7 @@
         <v>9455</v>
       </c>
       <c r="B773" s="0" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="C773" s="0" t="s">
         <v>716</v>
@@ -60329,10 +60326,10 @@
         <v>717</v>
       </c>
       <c r="E773" s="0" t="s">
+        <v>3574</v>
+      </c>
+      <c r="F773" s="0" t="s">
         <v>3575</v>
-      </c>
-      <c r="F773" s="0" t="s">
-        <v>3576</v>
       </c>
       <c r="G773" s="0" t="s">
         <v>26</v>
@@ -60350,7 +60347,7 @@
         <v>4</v>
       </c>
       <c r="L773" s="0" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="M773" s="0" t="s">
         <v>226</v>
@@ -60382,7 +60379,7 @@
         <v>9454</v>
       </c>
       <c r="B774" s="0" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="C774" s="0" t="s">
         <v>716</v>
@@ -60391,10 +60388,10 @@
         <v>717</v>
       </c>
       <c r="E774" s="0" t="s">
+        <v>3578</v>
+      </c>
+      <c r="F774" s="0" t="s">
         <v>3579</v>
-      </c>
-      <c r="F774" s="0" t="s">
-        <v>3580</v>
       </c>
       <c r="G774" s="0" t="s">
         <v>26</v>
@@ -60412,7 +60409,7 @@
         <v>4</v>
       </c>
       <c r="L774" s="0" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="M774" s="0" t="s">
         <v>226</v>
@@ -60444,7 +60441,7 @@
         <v>9823</v>
       </c>
       <c r="B775" s="0" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="C775" s="0" t="s">
         <v>716</v>
@@ -60453,10 +60450,10 @@
         <v>717</v>
       </c>
       <c r="E775" s="0" t="s">
+        <v>3582</v>
+      </c>
+      <c r="F775" s="0" t="s">
         <v>3583</v>
-      </c>
-      <c r="F775" s="0" t="s">
-        <v>3584</v>
       </c>
       <c r="G775" s="0" t="s">
         <v>26</v>
@@ -60506,7 +60503,7 @@
         <v>9824</v>
       </c>
       <c r="B776" s="0" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="C776" s="0" t="s">
         <v>716</v>
@@ -60515,10 +60512,10 @@
         <v>717</v>
       </c>
       <c r="E776" s="0" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F776" s="0" t="s">
         <v>3586</v>
-      </c>
-      <c r="F776" s="0" t="s">
-        <v>3587</v>
       </c>
       <c r="G776" s="0" t="s">
         <v>26</v>
@@ -60536,7 +60533,7 @@
         <v>4</v>
       </c>
       <c r="L776" s="0" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="M776" s="0" t="s">
         <v>226</v>
@@ -60568,7 +60565,7 @@
         <v>9512</v>
       </c>
       <c r="B777" s="0" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="C777" s="0" t="s">
         <v>716</v>
@@ -60577,10 +60574,10 @@
         <v>717</v>
       </c>
       <c r="E777" s="0" t="s">
+        <v>3589</v>
+      </c>
+      <c r="F777" s="0" t="s">
         <v>3590</v>
-      </c>
-      <c r="F777" s="0" t="s">
-        <v>3591</v>
       </c>
       <c r="G777" s="0" t="s">
         <v>26</v>
@@ -60598,7 +60595,7 @@
         <v>6</v>
       </c>
       <c r="L777" s="0" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="M777" s="0" t="s">
         <v>226</v>
@@ -60630,7 +60627,7 @@
         <v>9513</v>
       </c>
       <c r="B778" s="0" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
       <c r="C778" s="0" t="s">
         <v>716</v>
@@ -60639,10 +60636,10 @@
         <v>717</v>
       </c>
       <c r="E778" s="0" t="s">
+        <v>3593</v>
+      </c>
+      <c r="F778" s="0" t="s">
         <v>3594</v>
-      </c>
-      <c r="F778" s="0" t="s">
-        <v>3595</v>
       </c>
       <c r="G778" s="0" t="s">
         <v>26</v>
@@ -60692,7 +60689,7 @@
         <v>9514</v>
       </c>
       <c r="B779" s="0" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
       <c r="C779" s="0" t="s">
         <v>716</v>
@@ -60701,10 +60698,10 @@
         <v>717</v>
       </c>
       <c r="E779" s="0" t="s">
+        <v>3596</v>
+      </c>
+      <c r="F779" s="0" t="s">
         <v>3597</v>
-      </c>
-      <c r="F779" s="0" t="s">
-        <v>3598</v>
       </c>
       <c r="G779" s="0" t="s">
         <v>26</v>
@@ -60754,7 +60751,7 @@
         <v>9248</v>
       </c>
       <c r="B780" s="0" t="s">
-        <v>3599</v>
+        <v>3598</v>
       </c>
       <c r="C780" s="0" t="s">
         <v>591</v>
@@ -60763,10 +60760,10 @@
         <v>592</v>
       </c>
       <c r="E780" s="0" t="s">
+        <v>3599</v>
+      </c>
+      <c r="F780" s="0" t="s">
         <v>3600</v>
-      </c>
-      <c r="F780" s="0" t="s">
-        <v>3601</v>
       </c>
       <c r="G780" s="0" t="s">
         <v>26</v>
@@ -60784,7 +60781,7 @@
         <v>13.5</v>
       </c>
       <c r="L780" s="0" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
       <c r="M780" s="0" t="s">
         <v>44</v>
@@ -60816,7 +60813,7 @@
         <v>8925</v>
       </c>
       <c r="B781" s="0" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="C781" s="0" t="s">
         <v>2240</v>
@@ -60825,10 +60822,10 @@
         <v>2241</v>
       </c>
       <c r="E781" s="0" t="s">
+        <v>3603</v>
+      </c>
+      <c r="F781" s="0" t="s">
         <v>3604</v>
-      </c>
-      <c r="F781" s="0" t="s">
-        <v>3605</v>
       </c>
       <c r="G781" s="0" t="s">
         <v>26</v>
@@ -60878,7 +60875,7 @@
         <v>8927</v>
       </c>
       <c r="B782" s="0" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="C782" s="0" t="s">
         <v>2240</v>
@@ -60887,10 +60884,10 @@
         <v>2241</v>
       </c>
       <c r="E782" s="0" t="s">
+        <v>3606</v>
+      </c>
+      <c r="F782" s="0" t="s">
         <v>3607</v>
-      </c>
-      <c r="F782" s="0" t="s">
-        <v>3608</v>
       </c>
       <c r="G782" s="0" t="s">
         <v>26</v>
@@ -60908,7 +60905,7 @@
         <v>8</v>
       </c>
       <c r="L782" s="0" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="M782" s="0" t="s">
         <v>44</v>
@@ -60940,19 +60937,19 @@
         <v>8622</v>
       </c>
       <c r="B783" s="0" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C783" s="0" t="s">
         <v>3610</v>
       </c>
-      <c r="C783" s="0" t="s">
+      <c r="D783" s="0" t="s">
         <v>3611</v>
       </c>
-      <c r="D783" s="0" t="s">
+      <c r="E783" s="0" t="s">
         <v>3612</v>
       </c>
-      <c r="E783" s="0" t="s">
+      <c r="F783" s="0" t="s">
         <v>3613</v>
-      </c>
-      <c r="F783" s="0" t="s">
-        <v>3614</v>
       </c>
       <c r="G783" s="0" t="s">
         <v>26</v>
@@ -61002,25 +60999,25 @@
         <v>9173</v>
       </c>
       <c r="B784" s="0" t="s">
+        <v>3614</v>
+      </c>
+      <c r="C784" s="0" t="s">
         <v>3615</v>
       </c>
-      <c r="C784" s="0" t="s">
+      <c r="D784" s="0" t="s">
         <v>3616</v>
       </c>
-      <c r="D784" s="0" t="s">
+      <c r="E784" s="0" t="s">
         <v>3617</v>
       </c>
-      <c r="E784" s="0" t="s">
+      <c r="F784" s="0" t="s">
         <v>3618</v>
       </c>
-      <c r="F784" s="0" t="s">
+      <c r="G784" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H784" s="0" t="s">
         <v>3619</v>
-      </c>
-      <c r="G784" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H784" s="0" t="s">
-        <v>3620</v>
       </c>
       <c r="I784" s="0" t="s">
         <v>28</v>
@@ -61032,7 +61029,7 @@
         <v>20</v>
       </c>
       <c r="L784" s="0" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="M784" s="0" t="s">
         <v>44</v>
@@ -61064,7 +61061,7 @@
         <v>9138</v>
       </c>
       <c r="B785" s="0" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
       <c r="C785" s="0" t="s">
         <v>1541</v>
@@ -61073,10 +61070,10 @@
         <v>53</v>
       </c>
       <c r="E785" s="0" t="s">
+        <v>3622</v>
+      </c>
+      <c r="F785" s="0" t="s">
         <v>3623</v>
-      </c>
-      <c r="F785" s="0" t="s">
-        <v>3624</v>
       </c>
       <c r="G785" s="0" t="s">
         <v>26</v>
@@ -61126,7 +61123,7 @@
         <v>9139</v>
       </c>
       <c r="B786" s="0" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="C786" s="0" t="s">
         <v>1541</v>
@@ -61135,10 +61132,10 @@
         <v>53</v>
       </c>
       <c r="E786" s="0" t="s">
+        <v>3625</v>
+      </c>
+      <c r="F786" s="0" t="s">
         <v>3626</v>
-      </c>
-      <c r="F786" s="0" t="s">
-        <v>3627</v>
       </c>
       <c r="G786" s="0" t="s">
         <v>26</v>
@@ -61156,7 +61153,7 @@
         <v>6.5</v>
       </c>
       <c r="L786" s="0" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="M786" s="0" t="s">
         <v>44</v>
@@ -61188,7 +61185,7 @@
         <v>9140</v>
       </c>
       <c r="B787" s="0" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="C787" s="0" t="s">
         <v>1541</v>
@@ -61197,10 +61194,10 @@
         <v>53</v>
       </c>
       <c r="E787" s="0" t="s">
+        <v>3629</v>
+      </c>
+      <c r="F787" s="0" t="s">
         <v>3630</v>
-      </c>
-      <c r="F787" s="0" t="s">
-        <v>3631</v>
       </c>
       <c r="G787" s="0" t="s">
         <v>26</v>
@@ -61218,7 +61215,7 @@
         <v>5</v>
       </c>
       <c r="L787" s="0" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="M787" s="0" t="s">
         <v>44</v>
@@ -61250,7 +61247,7 @@
         <v>9141</v>
       </c>
       <c r="B788" s="0" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="C788" s="0" t="s">
         <v>1541</v>
@@ -61259,10 +61256,10 @@
         <v>53</v>
       </c>
       <c r="E788" s="0" t="s">
+        <v>3632</v>
+      </c>
+      <c r="F788" s="0" t="s">
         <v>3633</v>
-      </c>
-      <c r="F788" s="0" t="s">
-        <v>3634</v>
       </c>
       <c r="G788" s="0" t="s">
         <v>26</v>
@@ -61312,7 +61309,7 @@
         <v>9142</v>
       </c>
       <c r="B789" s="0" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="C789" s="0" t="s">
         <v>1541</v>
@@ -61321,10 +61318,10 @@
         <v>53</v>
       </c>
       <c r="E789" s="0" t="s">
+        <v>3635</v>
+      </c>
+      <c r="F789" s="0" t="s">
         <v>3636</v>
-      </c>
-      <c r="F789" s="0" t="s">
-        <v>3637</v>
       </c>
       <c r="G789" s="0" t="s">
         <v>26</v>
@@ -61342,7 +61339,7 @@
         <v>4</v>
       </c>
       <c r="L789" s="0" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="M789" s="0" t="s">
         <v>44</v>
@@ -61374,7 +61371,7 @@
         <v>8403</v>
       </c>
       <c r="B790" s="0" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="C790" s="0" t="s">
         <v>52</v>
@@ -61383,10 +61380,10 @@
         <v>53</v>
       </c>
       <c r="E790" s="0" t="s">
+        <v>3639</v>
+      </c>
+      <c r="F790" s="0" t="s">
         <v>3640</v>
-      </c>
-      <c r="F790" s="0" t="s">
-        <v>3641</v>
       </c>
       <c r="G790" s="0" t="s">
         <v>26</v>
@@ -61404,7 +61401,7 @@
         <v>9</v>
       </c>
       <c r="L790" s="0" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="M790" s="0" t="s">
         <v>44</v>
@@ -61436,7 +61433,7 @@
         <v>9390</v>
       </c>
       <c r="B791" s="0" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="C791" s="0" t="s">
         <v>866</v>
@@ -61445,10 +61442,10 @@
         <v>867</v>
       </c>
       <c r="E791" s="0" t="s">
+        <v>3643</v>
+      </c>
+      <c r="F791" s="0" t="s">
         <v>3644</v>
-      </c>
-      <c r="F791" s="0" t="s">
-        <v>3645</v>
       </c>
       <c r="G791" s="0" t="s">
         <v>26</v>
@@ -61466,7 +61463,7 @@
         <v>8.46</v>
       </c>
       <c r="L791" s="0" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="M791" s="0" t="s">
         <v>44</v>
@@ -61498,25 +61495,25 @@
         <v>8909</v>
       </c>
       <c r="B792" s="0" t="s">
+        <v>3646</v>
+      </c>
+      <c r="C792" s="0" t="s">
         <v>3647</v>
       </c>
-      <c r="C792" s="0" t="s">
+      <c r="D792" s="0" t="s">
         <v>3648</v>
       </c>
-      <c r="D792" s="0" t="s">
+      <c r="E792" s="0" t="s">
         <v>3649</v>
       </c>
-      <c r="E792" s="0" t="s">
+      <c r="F792" s="0" t="s">
         <v>3650</v>
       </c>
-      <c r="F792" s="0" t="s">
+      <c r="G792" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H792" s="0" t="s">
         <v>3651</v>
-      </c>
-      <c r="G792" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H792" s="0" t="s">
-        <v>3652</v>
       </c>
       <c r="I792" s="0" t="s">
         <v>28</v>
@@ -61528,7 +61525,7 @@
         <v>13.12</v>
       </c>
       <c r="L792" s="0" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="M792" s="0" t="s">
         <v>44</v>
@@ -61560,25 +61557,25 @@
         <v>8910</v>
       </c>
       <c r="B793" s="0" t="s">
+        <v>3653</v>
+      </c>
+      <c r="C793" s="0" t="s">
+        <v>3647</v>
+      </c>
+      <c r="D793" s="0" t="s">
+        <v>3648</v>
+      </c>
+      <c r="E793" s="0" t="s">
         <v>3654</v>
       </c>
-      <c r="C793" s="0" t="s">
-        <v>3648</v>
-      </c>
-      <c r="D793" s="0" t="s">
-        <v>3649</v>
-      </c>
-      <c r="E793" s="0" t="s">
+      <c r="F793" s="0" t="s">
         <v>3655</v>
       </c>
-      <c r="F793" s="0" t="s">
-        <v>3656</v>
-      </c>
       <c r="G793" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H793" s="0" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="I793" s="0" t="s">
         <v>28</v>
@@ -61590,7 +61587,7 @@
         <v>11.9</v>
       </c>
       <c r="L793" s="0" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="M793" s="0" t="s">
         <v>44</v>
@@ -61622,25 +61619,25 @@
         <v>8914</v>
       </c>
       <c r="B794" s="0" t="s">
+        <v>3657</v>
+      </c>
+      <c r="C794" s="0" t="s">
+        <v>3647</v>
+      </c>
+      <c r="D794" s="0" t="s">
+        <v>3648</v>
+      </c>
+      <c r="E794" s="0" t="s">
         <v>3658</v>
       </c>
-      <c r="C794" s="0" t="s">
-        <v>3648</v>
-      </c>
-      <c r="D794" s="0" t="s">
-        <v>3649</v>
-      </c>
-      <c r="E794" s="0" t="s">
+      <c r="F794" s="0" t="s">
         <v>3659</v>
       </c>
-      <c r="F794" s="0" t="s">
-        <v>3660</v>
-      </c>
       <c r="G794" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H794" s="0" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="I794" s="0" t="s">
         <v>28</v>
@@ -61684,7 +61681,7 @@
         <v>8959</v>
       </c>
       <c r="B795" s="0" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="C795" s="0" t="s">
         <v>1430</v>
@@ -61693,16 +61690,16 @@
         <v>1431</v>
       </c>
       <c r="E795" s="0" t="s">
+        <v>3661</v>
+      </c>
+      <c r="F795" s="0" t="s">
         <v>3662</v>
       </c>
-      <c r="F795" s="0" t="s">
+      <c r="G795" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H795" s="0" t="s">
         <v>3663</v>
-      </c>
-      <c r="G795" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H795" s="0" t="s">
-        <v>3664</v>
       </c>
       <c r="I795" s="0" t="s">
         <v>1444</v>
@@ -61714,7 +61711,7 @@
         <v>4.5</v>
       </c>
       <c r="L795" s="0" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="M795" s="0" t="s">
         <v>44</v>
@@ -61746,7 +61743,7 @@
         <v>8332</v>
       </c>
       <c r="B796" s="0" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="C796" s="0" t="s">
         <v>52</v>
@@ -61755,10 +61752,10 @@
         <v>53</v>
       </c>
       <c r="E796" s="0" t="s">
+        <v>3666</v>
+      </c>
+      <c r="F796" s="0" t="s">
         <v>3667</v>
-      </c>
-      <c r="F796" s="0" t="s">
-        <v>3668</v>
       </c>
       <c r="G796" s="0" t="s">
         <v>26</v>
@@ -61776,7 +61773,7 @@
         <v>68</v>
       </c>
       <c r="L796" s="0" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
       <c r="M796" s="0" t="s">
         <v>147</v>
@@ -61808,7 +61805,7 @@
         <v>8375</v>
       </c>
       <c r="B797" s="0" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="C797" s="0" t="s">
         <v>52</v>
@@ -61817,10 +61814,10 @@
         <v>53</v>
       </c>
       <c r="E797" s="0" t="s">
+        <v>3670</v>
+      </c>
+      <c r="F797" s="0" t="s">
         <v>3671</v>
-      </c>
-      <c r="F797" s="0" t="s">
-        <v>3672</v>
       </c>
       <c r="G797" s="0" t="s">
         <v>26</v>
@@ -61838,7 +61835,7 @@
         <v>28.9</v>
       </c>
       <c r="L797" s="0" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="M797" s="0" t="s">
         <v>85</v>
@@ -61870,19 +61867,19 @@
         <v>8730</v>
       </c>
       <c r="B798" s="0" t="s">
+        <v>3673</v>
+      </c>
+      <c r="C798" s="0" t="s">
         <v>3674</v>
       </c>
-      <c r="C798" s="0" t="s">
+      <c r="D798" s="0" t="s">
         <v>3675</v>
       </c>
-      <c r="D798" s="0" t="s">
+      <c r="E798" s="0" t="s">
         <v>3676</v>
       </c>
-      <c r="E798" s="0" t="s">
+      <c r="F798" s="0" t="s">
         <v>3677</v>
-      </c>
-      <c r="F798" s="0" t="s">
-        <v>3678</v>
       </c>
       <c r="G798" s="0" t="s">
         <v>26</v>
@@ -61900,7 +61897,7 @@
         <v>8</v>
       </c>
       <c r="L798" s="0" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="M798" s="0" t="s">
         <v>44</v>
@@ -61932,19 +61929,19 @@
         <v>8759</v>
       </c>
       <c r="B799" s="0" t="s">
+        <v>3679</v>
+      </c>
+      <c r="C799" s="0" t="s">
+        <v>3674</v>
+      </c>
+      <c r="D799" s="0" t="s">
+        <v>3675</v>
+      </c>
+      <c r="E799" s="0" t="s">
         <v>3680</v>
       </c>
-      <c r="C799" s="0" t="s">
-        <v>3675</v>
-      </c>
-      <c r="D799" s="0" t="s">
-        <v>3676</v>
-      </c>
-      <c r="E799" s="0" t="s">
+      <c r="F799" s="0" t="s">
         <v>3681</v>
-      </c>
-      <c r="F799" s="0" t="s">
-        <v>3682</v>
       </c>
       <c r="G799" s="0" t="s">
         <v>26</v>
@@ -61962,7 +61959,7 @@
         <v>7</v>
       </c>
       <c r="L799" s="0" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="M799" s="0" t="s">
         <v>44</v>
@@ -61994,7 +61991,7 @@
         <v>8308</v>
       </c>
       <c r="B800" s="0" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="C800" s="0" t="s">
         <v>52</v>
@@ -62003,10 +62000,10 @@
         <v>53</v>
       </c>
       <c r="E800" s="0" t="s">
+        <v>3684</v>
+      </c>
+      <c r="F800" s="0" t="s">
         <v>3685</v>
-      </c>
-      <c r="F800" s="0" t="s">
-        <v>3686</v>
       </c>
       <c r="G800" s="0" t="s">
         <v>26</v>
@@ -62056,7 +62053,7 @@
         <v>8405</v>
       </c>
       <c r="B801" s="0" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="C801" s="0" t="s">
         <v>52</v>
@@ -62065,10 +62062,10 @@
         <v>53</v>
       </c>
       <c r="E801" s="0" t="s">
+        <v>3687</v>
+      </c>
+      <c r="F801" s="0" t="s">
         <v>3688</v>
-      </c>
-      <c r="F801" s="0" t="s">
-        <v>3689</v>
       </c>
       <c r="G801" s="0" t="s">
         <v>26</v>
@@ -62086,7 +62083,7 @@
         <v>24</v>
       </c>
       <c r="L801" s="0" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="M801" s="0" t="s">
         <v>85</v>
@@ -62118,7 +62115,7 @@
         <v>9143</v>
       </c>
       <c r="B802" s="0" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="C802" s="0" t="s">
         <v>1541</v>
@@ -62127,10 +62124,10 @@
         <v>53</v>
       </c>
       <c r="E802" s="0" t="s">
+        <v>3691</v>
+      </c>
+      <c r="F802" s="0" t="s">
         <v>3692</v>
-      </c>
-      <c r="F802" s="0" t="s">
-        <v>3693</v>
       </c>
       <c r="G802" s="0" t="s">
         <v>26</v>
@@ -62148,7 +62145,7 @@
         <v>7</v>
       </c>
       <c r="L802" s="0" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="M802" s="0" t="s">
         <v>44</v>
@@ -62180,19 +62177,19 @@
         <v>10033</v>
       </c>
       <c r="B803" s="0" t="s">
+        <v>3694</v>
+      </c>
+      <c r="C803" s="0" t="s">
         <v>3695</v>
-      </c>
-      <c r="C803" s="0" t="s">
-        <v>3696</v>
       </c>
       <c r="D803" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E803" s="0" t="s">
+        <v>3696</v>
+      </c>
+      <c r="F803" s="0" t="s">
         <v>3697</v>
-      </c>
-      <c r="F803" s="0" t="s">
-        <v>3698</v>
       </c>
       <c r="G803" s="0" t="s">
         <v>26</v>
@@ -62210,7 +62207,7 @@
         <v>10.79</v>
       </c>
       <c r="L803" s="0" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="M803" s="0" t="s">
         <v>85</v>
@@ -62242,7 +62239,7 @@
         <v>9172</v>
       </c>
       <c r="B804" s="0" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="C804" s="0" t="s">
         <v>1703</v>
@@ -62251,10 +62248,10 @@
         <v>1704</v>
       </c>
       <c r="E804" s="0" t="s">
+        <v>3700</v>
+      </c>
+      <c r="F804" s="0" t="s">
         <v>3701</v>
-      </c>
-      <c r="F804" s="0" t="s">
-        <v>3702</v>
       </c>
       <c r="G804" s="0" t="s">
         <v>26</v>
@@ -62304,7 +62301,7 @@
         <v>9482</v>
       </c>
       <c r="B805" s="0" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="C805" s="0" t="s">
         <v>1703</v>
@@ -62313,10 +62310,10 @@
         <v>1704</v>
       </c>
       <c r="E805" s="0" t="s">
+        <v>3703</v>
+      </c>
+      <c r="F805" s="0" t="s">
         <v>3704</v>
-      </c>
-      <c r="F805" s="0" t="s">
-        <v>3705</v>
       </c>
       <c r="G805" s="0" t="s">
         <v>26</v>
@@ -62334,7 +62331,7 @@
         <v>6</v>
       </c>
       <c r="L805" s="0" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="M805" s="0" t="s">
         <v>44</v>
@@ -62366,7 +62363,7 @@
         <v>9483</v>
       </c>
       <c r="B806" s="0" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="C806" s="0" t="s">
         <v>1703</v>
@@ -62375,10 +62372,10 @@
         <v>1704</v>
       </c>
       <c r="E806" s="0" t="s">
+        <v>3707</v>
+      </c>
+      <c r="F806" s="0" t="s">
         <v>3708</v>
-      </c>
-      <c r="F806" s="0" t="s">
-        <v>3709</v>
       </c>
       <c r="G806" s="0" t="s">
         <v>26</v>
@@ -62393,7 +62390,7 @@
         <v>5</v>
       </c>
       <c r="L806" s="0" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
       <c r="M806" s="0" t="s">
         <v>44</v>
@@ -62425,25 +62422,25 @@
         <v>8548</v>
       </c>
       <c r="B807" s="0" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C807" s="0" t="s">
         <v>3711</v>
       </c>
-      <c r="C807" s="0" t="s">
+      <c r="D807" s="0" t="s">
         <v>3712</v>
       </c>
-      <c r="D807" s="0" t="s">
+      <c r="E807" s="0" t="s">
         <v>3713</v>
       </c>
-      <c r="E807" s="0" t="s">
+      <c r="F807" s="0" t="s">
         <v>3714</v>
       </c>
-      <c r="F807" s="0" t="s">
+      <c r="G807" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H807" s="0" t="s">
         <v>3715</v>
-      </c>
-      <c r="G807" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H807" s="0" t="s">
-        <v>3716</v>
       </c>
       <c r="I807" s="0" t="s">
         <v>70</v>
@@ -62455,7 +62452,7 @@
         <v>8</v>
       </c>
       <c r="L807" s="0" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="M807" s="0" t="s">
         <v>44</v>
@@ -62487,25 +62484,25 @@
         <v>9924</v>
       </c>
       <c r="B808" s="0" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C808" s="0" t="s">
+        <v>3711</v>
+      </c>
+      <c r="D808" s="0" t="s">
+        <v>3712</v>
+      </c>
+      <c r="E808" s="0" t="s">
         <v>3718</v>
       </c>
-      <c r="C808" s="0" t="s">
-        <v>3712</v>
-      </c>
-      <c r="D808" s="0" t="s">
-        <v>3713</v>
-      </c>
-      <c r="E808" s="0" t="s">
+      <c r="F808" s="0" t="s">
         <v>3719</v>
       </c>
-      <c r="F808" s="0" t="s">
-        <v>3720</v>
-      </c>
       <c r="G808" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H808" s="0" t="s">
-        <v>3716</v>
+        <v>3715</v>
       </c>
       <c r="I808" s="0" t="s">
         <v>70</v>
@@ -62549,7 +62546,7 @@
         <v>8358</v>
       </c>
       <c r="B809" s="0" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="C809" s="0" t="s">
         <v>52</v>
@@ -62558,10 +62555,10 @@
         <v>53</v>
       </c>
       <c r="E809" s="0" t="s">
+        <v>3721</v>
+      </c>
+      <c r="F809" s="0" t="s">
         <v>3722</v>
-      </c>
-      <c r="F809" s="0" t="s">
-        <v>3723</v>
       </c>
       <c r="G809" s="0" t="s">
         <v>26</v>
@@ -62579,7 +62576,7 @@
         <v>16</v>
       </c>
       <c r="L809" s="0" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="M809" s="0" t="s">
         <v>44</v>
@@ -62611,28 +62608,28 @@
         <v>8826</v>
       </c>
       <c r="B810" s="0" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C810" s="0" t="s">
         <v>3725</v>
       </c>
-      <c r="C810" s="0" t="s">
+      <c r="D810" s="0" t="s">
         <v>3726</v>
       </c>
-      <c r="D810" s="0" t="s">
+      <c r="E810" s="0" t="s">
         <v>3727</v>
       </c>
-      <c r="E810" s="0" t="s">
+      <c r="F810" s="0" t="s">
         <v>3728</v>
       </c>
-      <c r="F810" s="0" t="s">
+      <c r="G810" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H810" s="0" t="s">
         <v>3729</v>
       </c>
-      <c r="G810" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H810" s="0" t="s">
+      <c r="I810" s="0" t="s">
         <v>3730</v>
-      </c>
-      <c r="I810" s="0" t="s">
-        <v>3731</v>
       </c>
       <c r="J810" s="0" t="s">
         <v>1291</v>
@@ -62641,7 +62638,7 @@
         <v>3</v>
       </c>
       <c r="L810" s="0" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="M810" s="0" t="s">
         <v>44</v>
@@ -62673,7 +62670,7 @@
         <v>9235</v>
       </c>
       <c r="B811" s="0" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="C811" s="0" t="s">
         <v>716</v>
@@ -62682,10 +62679,10 @@
         <v>717</v>
       </c>
       <c r="E811" s="0" t="s">
+        <v>3733</v>
+      </c>
+      <c r="F811" s="0" t="s">
         <v>3734</v>
-      </c>
-      <c r="F811" s="0" t="s">
-        <v>3735</v>
       </c>
       <c r="G811" s="0" t="s">
         <v>26</v>
@@ -62703,7 +62700,7 @@
         <v>0</v>
       </c>
       <c r="L811" s="0" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="M811" s="0" t="s">
         <v>44</v>
@@ -62735,7 +62732,7 @@
         <v>9236</v>
       </c>
       <c r="B812" s="0" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="C812" s="0" t="s">
         <v>716</v>
@@ -62744,10 +62741,10 @@
         <v>717</v>
       </c>
       <c r="E812" s="0" t="s">
+        <v>3737</v>
+      </c>
+      <c r="F812" s="0" t="s">
         <v>3738</v>
-      </c>
-      <c r="F812" s="0" t="s">
-        <v>3739</v>
       </c>
       <c r="G812" s="0" t="s">
         <v>26</v>
@@ -62797,19 +62794,19 @@
         <v>9585</v>
       </c>
       <c r="B813" s="0" t="s">
+        <v>3739</v>
+      </c>
+      <c r="C813" s="0" t="s">
         <v>3740</v>
-      </c>
-      <c r="C813" s="0" t="s">
-        <v>3741</v>
       </c>
       <c r="D813" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E813" s="0" t="s">
+        <v>3741</v>
+      </c>
+      <c r="F813" s="0" t="s">
         <v>3742</v>
-      </c>
-      <c r="F813" s="0" t="s">
-        <v>3743</v>
       </c>
       <c r="G813" s="0" t="s">
         <v>26</v>
@@ -62827,7 +62824,7 @@
         <v>8</v>
       </c>
       <c r="L813" s="0" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="M813" s="0" t="s">
         <v>44</v>
@@ -62859,7 +62856,7 @@
         <v>8939</v>
       </c>
       <c r="B814" s="0" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="C814" s="0" t="s">
         <v>309</v>
@@ -62868,10 +62865,10 @@
         <v>310</v>
       </c>
       <c r="E814" s="0" t="s">
+        <v>3745</v>
+      </c>
+      <c r="F814" s="0" t="s">
         <v>3746</v>
-      </c>
-      <c r="F814" s="0" t="s">
-        <v>3747</v>
       </c>
       <c r="G814" s="0" t="s">
         <v>26</v>
@@ -62889,7 +62886,7 @@
         <v>50</v>
       </c>
       <c r="L814" s="0" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="M814" s="0" t="s">
         <v>44</v>
@@ -62921,7 +62918,7 @@
         <v>8700</v>
       </c>
       <c r="B815" s="0" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="C815" s="0" t="s">
         <v>2109</v>
@@ -62930,10 +62927,10 @@
         <v>2110</v>
       </c>
       <c r="E815" s="0" t="s">
+        <v>3749</v>
+      </c>
+      <c r="F815" s="0" t="s">
         <v>3750</v>
-      </c>
-      <c r="F815" s="0" t="s">
-        <v>3751</v>
       </c>
       <c r="G815" s="0" t="s">
         <v>26</v>
@@ -62951,7 +62948,7 @@
         <v>50.5</v>
       </c>
       <c r="L815" s="0" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="M815" s="0" t="s">
         <v>85</v>
@@ -62983,19 +62980,19 @@
         <v>8190</v>
       </c>
       <c r="B816" s="0" t="s">
+        <v>3752</v>
+      </c>
+      <c r="C816" s="0" t="s">
         <v>3753</v>
       </c>
-      <c r="C816" s="0" t="s">
+      <c r="D816" s="0" t="s">
         <v>3754</v>
       </c>
-      <c r="D816" s="0" t="s">
+      <c r="E816" s="0" t="s">
         <v>3755</v>
       </c>
-      <c r="E816" s="0" t="s">
+      <c r="F816" s="0" t="s">
         <v>3756</v>
-      </c>
-      <c r="F816" s="0" t="s">
-        <v>3757</v>
       </c>
       <c r="G816" s="0" t="s">
         <v>26</v>
@@ -63045,19 +63042,19 @@
         <v>8877</v>
       </c>
       <c r="B817" s="0" t="s">
+        <v>3757</v>
+      </c>
+      <c r="C817" s="0" t="s">
         <v>3758</v>
       </c>
-      <c r="C817" s="0" t="s">
+      <c r="D817" s="0" t="s">
         <v>3759</v>
       </c>
-      <c r="D817" s="0" t="s">
+      <c r="E817" s="0" t="s">
         <v>3760</v>
       </c>
-      <c r="E817" s="0" t="s">
+      <c r="F817" s="0" t="s">
         <v>3761</v>
-      </c>
-      <c r="F817" s="0" t="s">
-        <v>3762</v>
       </c>
       <c r="G817" s="0" t="s">
         <v>26</v>
@@ -63069,7 +63066,7 @@
         <v>28</v>
       </c>
       <c r="J817" s="0" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="K817" s="0">
         <v>4</v>
@@ -63107,19 +63104,19 @@
         <v>9019</v>
       </c>
       <c r="B818" s="0" t="s">
+        <v>3763</v>
+      </c>
+      <c r="C818" s="0" t="s">
         <v>3764</v>
       </c>
-      <c r="C818" s="0" t="s">
+      <c r="D818" s="0" t="s">
         <v>3765</v>
       </c>
-      <c r="D818" s="0" t="s">
+      <c r="E818" s="0" t="s">
         <v>3766</v>
       </c>
-      <c r="E818" s="0" t="s">
+      <c r="F818" s="0" t="s">
         <v>3767</v>
-      </c>
-      <c r="F818" s="0" t="s">
-        <v>3768</v>
       </c>
       <c r="G818" s="0" t="s">
         <v>699</v>
@@ -63137,7 +63134,7 @@
         <v>5</v>
       </c>
       <c r="L818" s="0" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="M818" s="0" t="s">
         <v>44</v>
@@ -63169,19 +63166,19 @@
         <v>9110</v>
       </c>
       <c r="B819" s="0" t="s">
+        <v>3769</v>
+      </c>
+      <c r="C819" s="0" t="s">
         <v>3770</v>
       </c>
-      <c r="C819" s="0" t="s">
+      <c r="D819" s="0" t="s">
         <v>3771</v>
       </c>
-      <c r="D819" s="0" t="s">
+      <c r="E819" s="0" t="s">
         <v>3772</v>
       </c>
-      <c r="E819" s="0" t="s">
+      <c r="F819" s="0" t="s">
         <v>3773</v>
-      </c>
-      <c r="F819" s="0" t="s">
-        <v>3774</v>
       </c>
       <c r="G819" s="0" t="s">
         <v>26</v>
@@ -63199,7 +63196,7 @@
         <v>6</v>
       </c>
       <c r="L819" s="0" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="M819" s="0" t="s">
         <v>44</v>
@@ -63231,25 +63228,25 @@
         <v>9153</v>
       </c>
       <c r="B820" s="0" t="s">
+        <v>3775</v>
+      </c>
+      <c r="C820" s="0" t="s">
         <v>3776</v>
       </c>
-      <c r="C820" s="0" t="s">
+      <c r="D820" s="0" t="s">
         <v>3777</v>
       </c>
-      <c r="D820" s="0" t="s">
+      <c r="E820" s="0" t="s">
         <v>3778</v>
       </c>
-      <c r="E820" s="0" t="s">
+      <c r="F820" s="0" t="s">
         <v>3779</v>
       </c>
-      <c r="F820" s="0" t="s">
+      <c r="G820" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H820" s="0" t="s">
         <v>3780</v>
-      </c>
-      <c r="G820" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H820" s="0" t="s">
-        <v>3781</v>
       </c>
       <c r="I820" s="0" t="s">
         <v>782</v>
@@ -63261,7 +63258,7 @@
         <v>2</v>
       </c>
       <c r="L820" s="0" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="M820" s="0" t="s">
         <v>44</v>
@@ -63293,25 +63290,25 @@
         <v>9080</v>
       </c>
       <c r="B821" s="0" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="C821" s="0" t="s">
+        <v>3782</v>
+      </c>
+      <c r="D821" s="0" t="s">
         <v>3783</v>
       </c>
-      <c r="D821" s="0" t="s">
+      <c r="E821" s="0" t="s">
         <v>3784</v>
       </c>
-      <c r="E821" s="0" t="s">
+      <c r="F821" s="0" t="s">
         <v>3785</v>
       </c>
-      <c r="F821" s="0" t="s">
-        <v>3786</v>
-      </c>
       <c r="G821" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H821" s="0" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="I821" s="0" t="s">
         <v>782</v>
@@ -63323,7 +63320,7 @@
         <v>3</v>
       </c>
       <c r="L821" s="0" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="M821" s="0" t="s">
         <v>44</v>
@@ -63355,25 +63352,25 @@
         <v>9083</v>
       </c>
       <c r="B822" s="0" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="C822" s="0" t="s">
+        <v>3787</v>
+      </c>
+      <c r="D822" s="0" t="s">
         <v>3788</v>
       </c>
-      <c r="D822" s="0" t="s">
+      <c r="E822" s="0" t="s">
         <v>3789</v>
       </c>
-      <c r="E822" s="0" t="s">
+      <c r="F822" s="0" t="s">
         <v>3790</v>
       </c>
-      <c r="F822" s="0" t="s">
-        <v>3791</v>
-      </c>
       <c r="G822" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H822" s="0" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="I822" s="0" t="s">
         <v>782</v>
@@ -63385,7 +63382,7 @@
         <v>2</v>
       </c>
       <c r="L822" s="0" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="M822" s="0" t="s">
         <v>44</v>
@@ -63417,25 +63414,25 @@
         <v>9111</v>
       </c>
       <c r="B823" s="0" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="C823" s="0" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D823" s="0" t="s">
         <v>3793</v>
       </c>
-      <c r="D823" s="0" t="s">
+      <c r="E823" s="0" t="s">
         <v>3794</v>
       </c>
-      <c r="E823" s="0" t="s">
+      <c r="F823" s="0" t="s">
         <v>3795</v>
       </c>
-      <c r="F823" s="0" t="s">
-        <v>3796</v>
-      </c>
       <c r="G823" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H823" s="0" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="I823" s="0" t="s">
         <v>782</v>
@@ -63479,25 +63476,25 @@
         <v>9155</v>
       </c>
       <c r="B824" s="0" t="s">
+        <v>3796</v>
+      </c>
+      <c r="C824" s="0" t="s">
+        <v>3776</v>
+      </c>
+      <c r="D824" s="0" t="s">
+        <v>3777</v>
+      </c>
+      <c r="E824" s="0" t="s">
         <v>3797</v>
       </c>
-      <c r="C824" s="0" t="s">
-        <v>3777</v>
-      </c>
-      <c r="D824" s="0" t="s">
-        <v>3778</v>
-      </c>
-      <c r="E824" s="0" t="s">
+      <c r="F824" s="0" t="s">
         <v>3798</v>
       </c>
-      <c r="F824" s="0" t="s">
-        <v>3799</v>
-      </c>
       <c r="G824" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H824" s="0" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="I824" s="0" t="s">
         <v>782</v>
@@ -63509,7 +63506,7 @@
         <v>2</v>
       </c>
       <c r="L824" s="0" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="M824" s="0" t="s">
         <v>44</v>
@@ -63541,19 +63538,19 @@
         <v>8688</v>
       </c>
       <c r="B825" s="0" t="s">
-        <v>3620</v>
+        <v>3619</v>
       </c>
       <c r="C825" s="0" t="s">
+        <v>3800</v>
+      </c>
+      <c r="D825" s="0" t="s">
         <v>3801</v>
       </c>
-      <c r="D825" s="0" t="s">
+      <c r="E825" s="0" t="s">
         <v>3802</v>
       </c>
-      <c r="E825" s="0" t="s">
+      <c r="F825" s="0" t="s">
         <v>3803</v>
-      </c>
-      <c r="F825" s="0" t="s">
-        <v>3804</v>
       </c>
       <c r="G825" s="0" t="s">
         <v>26</v>
@@ -63603,7 +63600,7 @@
         <v>8359</v>
       </c>
       <c r="B826" s="0" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="C826" s="0" t="s">
         <v>52</v>
@@ -63612,10 +63609,10 @@
         <v>53</v>
       </c>
       <c r="E826" s="0" t="s">
+        <v>3805</v>
+      </c>
+      <c r="F826" s="0" t="s">
         <v>3806</v>
-      </c>
-      <c r="F826" s="0" t="s">
-        <v>3807</v>
       </c>
       <c r="G826" s="0" t="s">
         <v>26</v>
@@ -63633,7 +63630,7 @@
         <v>31</v>
       </c>
       <c r="L826" s="0" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="M826" s="0" t="s">
         <v>44</v>
@@ -63665,7 +63662,7 @@
         <v>9152</v>
       </c>
       <c r="B827" s="0" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="C827" s="0" t="s">
         <v>2995</v>
@@ -63674,10 +63671,10 @@
         <v>2996</v>
       </c>
       <c r="E827" s="0" t="s">
+        <v>3809</v>
+      </c>
+      <c r="F827" s="0" t="s">
         <v>3810</v>
-      </c>
-      <c r="F827" s="0" t="s">
-        <v>3811</v>
       </c>
       <c r="G827" s="0" t="s">
         <v>26</v>
@@ -63695,7 +63692,7 @@
         <v>10</v>
       </c>
       <c r="L827" s="0" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="M827" s="0" t="s">
         <v>226</v>
@@ -63727,7 +63724,7 @@
         <v>9423</v>
       </c>
       <c r="B828" s="0" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="C828" s="0" t="s">
         <v>198</v>
@@ -63736,10 +63733,10 @@
         <v>199</v>
       </c>
       <c r="E828" s="0" t="s">
+        <v>3813</v>
+      </c>
+      <c r="F828" s="0" t="s">
         <v>3814</v>
-      </c>
-      <c r="F828" s="0" t="s">
-        <v>3815</v>
       </c>
       <c r="G828" s="0" t="s">
         <v>26</v>
@@ -63789,19 +63786,19 @@
         <v>8471</v>
       </c>
       <c r="B829" s="0" t="s">
+        <v>3815</v>
+      </c>
+      <c r="C829" s="0" t="s">
         <v>3816</v>
-      </c>
-      <c r="C829" s="0" t="s">
-        <v>3817</v>
       </c>
       <c r="D829" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E829" s="0" t="s">
+        <v>3817</v>
+      </c>
+      <c r="F829" s="0" t="s">
         <v>3818</v>
-      </c>
-      <c r="F829" s="0" t="s">
-        <v>3819</v>
       </c>
       <c r="G829" s="0" t="s">
         <v>26</v>
@@ -63819,7 +63816,7 @@
         <v>25</v>
       </c>
       <c r="L829" s="0" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="M829" s="0" t="s">
         <v>85</v>
@@ -63851,19 +63848,19 @@
         <v>9197</v>
       </c>
       <c r="B830" s="0" t="s">
+        <v>3820</v>
+      </c>
+      <c r="C830" s="0" t="s">
         <v>3821</v>
-      </c>
-      <c r="C830" s="0" t="s">
-        <v>3822</v>
       </c>
       <c r="D830" s="0" t="s">
         <v>285</v>
       </c>
       <c r="E830" s="0" t="s">
+        <v>3822</v>
+      </c>
+      <c r="F830" s="0" t="s">
         <v>3823</v>
-      </c>
-      <c r="F830" s="0" t="s">
-        <v>3824</v>
       </c>
       <c r="G830" s="0" t="s">
         <v>26</v>
@@ -63881,7 +63878,7 @@
         <v>13.5</v>
       </c>
       <c r="L830" s="0" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="M830" s="0" t="s">
         <v>85</v>
@@ -63913,7 +63910,7 @@
         <v>9925</v>
       </c>
       <c r="B831" s="0" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="C831" s="0" t="s">
         <v>65</v>
@@ -63922,10 +63919,10 @@
         <v>66</v>
       </c>
       <c r="E831" s="0" t="s">
+        <v>3826</v>
+      </c>
+      <c r="F831" s="0" t="s">
         <v>3827</v>
-      </c>
-      <c r="F831" s="0" t="s">
-        <v>3828</v>
       </c>
       <c r="G831" s="0" t="s">
         <v>26</v>
@@ -63940,7 +63937,7 @@
         <v>13.08</v>
       </c>
       <c r="L831" s="0" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="M831" s="0" t="s">
         <v>44</v>
@@ -63972,7 +63969,7 @@
         <v>8993</v>
       </c>
       <c r="B832" s="0" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="C832" s="0" t="s">
         <v>695</v>
@@ -63981,10 +63978,10 @@
         <v>696</v>
       </c>
       <c r="E832" s="0" t="s">
+        <v>3830</v>
+      </c>
+      <c r="F832" s="0" t="s">
         <v>3831</v>
-      </c>
-      <c r="F832" s="0" t="s">
-        <v>3832</v>
       </c>
       <c r="G832" s="0" t="s">
         <v>699</v>
@@ -64002,7 +63999,7 @@
         <v>9</v>
       </c>
       <c r="L832" s="0" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="M832" s="0" t="s">
         <v>44</v>
@@ -64034,7 +64031,7 @@
         <v>8472</v>
       </c>
       <c r="B833" s="0" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="C833" s="0" t="s">
         <v>298</v>
@@ -64043,10 +64040,10 @@
         <v>199</v>
       </c>
       <c r="E833" s="0" t="s">
+        <v>3834</v>
+      </c>
+      <c r="F833" s="0" t="s">
         <v>3835</v>
-      </c>
-      <c r="F833" s="0" t="s">
-        <v>3836</v>
       </c>
       <c r="G833" s="0" t="s">
         <v>26</v>
@@ -64064,7 +64061,7 @@
         <v>32</v>
       </c>
       <c r="L833" s="0" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="M833" s="0" t="s">
         <v>85</v>
@@ -64096,25 +64093,25 @@
         <v>8930</v>
       </c>
       <c r="B834" s="0" t="s">
+        <v>3837</v>
+      </c>
+      <c r="C834" s="0" t="s">
         <v>3838</v>
       </c>
-      <c r="C834" s="0" t="s">
+      <c r="D834" s="0" t="s">
         <v>3839</v>
       </c>
-      <c r="D834" s="0" t="s">
+      <c r="E834" s="0" t="s">
         <v>3840</v>
       </c>
-      <c r="E834" s="0" t="s">
+      <c r="F834" s="0" t="s">
         <v>3841</v>
       </c>
-      <c r="F834" s="0" t="s">
+      <c r="G834" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H834" s="0" t="s">
         <v>3842</v>
-      </c>
-      <c r="G834" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H834" s="0" t="s">
-        <v>3843</v>
       </c>
       <c r="I834" s="0" t="s">
         <v>120</v>
@@ -64158,19 +64155,19 @@
         <v>9934</v>
       </c>
       <c r="B835" s="0" t="s">
+        <v>3843</v>
+      </c>
+      <c r="C835" s="0" t="s">
         <v>3844</v>
-      </c>
-      <c r="C835" s="0" t="s">
-        <v>3845</v>
       </c>
       <c r="D835" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E835" s="0" t="s">
+        <v>3845</v>
+      </c>
+      <c r="F835" s="0" t="s">
         <v>3846</v>
-      </c>
-      <c r="F835" s="0" t="s">
-        <v>3847</v>
       </c>
       <c r="G835" s="0" t="s">
         <v>26</v>
@@ -64217,7 +64214,7 @@
         <v>8915</v>
       </c>
       <c r="B836" s="0" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
       <c r="C836" s="0" t="s">
         <v>2097</v>
@@ -64226,10 +64223,10 @@
         <v>2098</v>
       </c>
       <c r="E836" s="0" t="s">
+        <v>3847</v>
+      </c>
+      <c r="F836" s="0" t="s">
         <v>3848</v>
-      </c>
-      <c r="F836" s="0" t="s">
-        <v>3849</v>
       </c>
       <c r="G836" s="0" t="s">
         <v>26</v>
@@ -64247,7 +64244,7 @@
         <v>36</v>
       </c>
       <c r="L836" s="0" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="M836" s="0" t="s">
         <v>85</v>
@@ -64279,7 +64276,7 @@
         <v>9586</v>
       </c>
       <c r="B837" s="0" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="C837" s="0" t="s">
         <v>245</v>
@@ -64338,25 +64335,25 @@
         <v>9026</v>
       </c>
       <c r="B838" s="0" t="s">
+        <v>3851</v>
+      </c>
+      <c r="C838" s="0" t="s">
         <v>3852</v>
       </c>
-      <c r="C838" s="0" t="s">
+      <c r="D838" s="0" t="s">
         <v>3853</v>
       </c>
-      <c r="D838" s="0" t="s">
+      <c r="E838" s="0" t="s">
         <v>3854</v>
       </c>
-      <c r="E838" s="0" t="s">
+      <c r="F838" s="0" t="s">
         <v>3855</v>
       </c>
-      <c r="F838" s="0" t="s">
+      <c r="G838" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H838" s="0" t="s">
         <v>3856</v>
-      </c>
-      <c r="G838" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H838" s="0" t="s">
-        <v>3857</v>
       </c>
       <c r="I838" s="0" t="s">
         <v>469</v>
@@ -64400,19 +64397,19 @@
         <v>9432</v>
       </c>
       <c r="B839" s="0" t="s">
+        <v>3857</v>
+      </c>
+      <c r="C839" s="0" t="s">
         <v>3858</v>
       </c>
-      <c r="C839" s="0" t="s">
+      <c r="D839" s="0" t="s">
         <v>3859</v>
       </c>
-      <c r="D839" s="0" t="s">
+      <c r="E839" s="0" t="s">
         <v>3860</v>
       </c>
-      <c r="E839" s="0" t="s">
+      <c r="F839" s="0" t="s">
         <v>3861</v>
-      </c>
-      <c r="F839" s="0" t="s">
-        <v>3862</v>
       </c>
       <c r="G839" s="0" t="s">
         <v>26</v>
@@ -64462,7 +64459,7 @@
         <v>9462</v>
       </c>
       <c r="B840" s="0" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="C840" s="0" t="s">
         <v>1447</v>
@@ -64471,10 +64468,10 @@
         <v>199</v>
       </c>
       <c r="E840" s="0" t="s">
+        <v>3863</v>
+      </c>
+      <c r="F840" s="0" t="s">
         <v>3864</v>
-      </c>
-      <c r="F840" s="0" t="s">
-        <v>3865</v>
       </c>
       <c r="G840" s="0" t="s">
         <v>26</v>
@@ -64492,7 +64489,7 @@
         <v>8</v>
       </c>
       <c r="L840" s="0" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
       <c r="M840" s="0" t="s">
         <v>226</v>
@@ -64524,25 +64521,25 @@
         <v>8606</v>
       </c>
       <c r="B841" s="0" t="s">
+        <v>3866</v>
+      </c>
+      <c r="C841" s="0" t="s">
         <v>3867</v>
       </c>
-      <c r="C841" s="0" t="s">
+      <c r="D841" s="0" t="s">
         <v>3868</v>
       </c>
-      <c r="D841" s="0" t="s">
+      <c r="E841" s="0" t="s">
         <v>3869</v>
       </c>
-      <c r="E841" s="0" t="s">
+      <c r="F841" s="0" t="s">
         <v>3870</v>
       </c>
-      <c r="F841" s="0" t="s">
+      <c r="G841" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H841" s="0" t="s">
         <v>3871</v>
-      </c>
-      <c r="G841" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H841" s="0" t="s">
-        <v>3872</v>
       </c>
       <c r="I841" s="0" t="s">
         <v>120</v>
@@ -64586,19 +64583,19 @@
         <v>8836</v>
       </c>
       <c r="B842" s="0" t="s">
+        <v>3872</v>
+      </c>
+      <c r="C842" s="0" t="s">
         <v>3873</v>
-      </c>
-      <c r="C842" s="0" t="s">
-        <v>3874</v>
       </c>
       <c r="D842" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E842" s="0" t="s">
+        <v>3874</v>
+      </c>
+      <c r="F842" s="0" t="s">
         <v>3875</v>
-      </c>
-      <c r="F842" s="0" t="s">
-        <v>3876</v>
       </c>
       <c r="G842" s="0" t="s">
         <v>26</v>
@@ -64616,7 +64613,7 @@
         <v>28</v>
       </c>
       <c r="L842" s="0" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="M842" s="0" t="s">
         <v>85</v>
@@ -64648,19 +64645,19 @@
         <v>9420</v>
       </c>
       <c r="B843" s="0" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="C843" s="0" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="D843" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E843" s="0" t="s">
+        <v>3878</v>
+      </c>
+      <c r="F843" s="0" t="s">
         <v>3879</v>
-      </c>
-      <c r="F843" s="0" t="s">
-        <v>3880</v>
       </c>
       <c r="G843" s="0" t="s">
         <v>26</v>
@@ -64710,7 +64707,7 @@
         <v>8335</v>
       </c>
       <c r="B844" s="0" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="C844" s="0" t="s">
         <v>52</v>
@@ -64719,10 +64716,10 @@
         <v>53</v>
       </c>
       <c r="E844" s="0" t="s">
+        <v>3881</v>
+      </c>
+      <c r="F844" s="0" t="s">
         <v>3882</v>
-      </c>
-      <c r="F844" s="0" t="s">
-        <v>3883</v>
       </c>
       <c r="G844" s="0" t="s">
         <v>26</v>
@@ -64740,7 +64737,7 @@
         <v>51.72</v>
       </c>
       <c r="L844" s="0" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="M844" s="0" t="s">
         <v>85</v>
@@ -64772,19 +64769,19 @@
         <v>8743</v>
       </c>
       <c r="B845" s="0" t="s">
+        <v>3884</v>
+      </c>
+      <c r="C845" s="0" t="s">
         <v>3885</v>
       </c>
-      <c r="C845" s="0" t="s">
+      <c r="D845" s="0" t="s">
         <v>3886</v>
       </c>
-      <c r="D845" s="0" t="s">
+      <c r="E845" s="0" t="s">
         <v>3887</v>
       </c>
-      <c r="E845" s="0" t="s">
+      <c r="F845" s="0" t="s">
         <v>3888</v>
-      </c>
-      <c r="F845" s="0" t="s">
-        <v>3889</v>
       </c>
       <c r="G845" s="0" t="s">
         <v>26</v>
@@ -64834,19 +64831,19 @@
         <v>9244</v>
       </c>
       <c r="B846" s="0" t="s">
+        <v>3889</v>
+      </c>
+      <c r="C846" s="0" t="s">
         <v>3890</v>
       </c>
-      <c r="C846" s="0" t="s">
+      <c r="D846" s="0" t="s">
         <v>3891</v>
       </c>
-      <c r="D846" s="0" t="s">
+      <c r="E846" s="0" t="s">
         <v>3892</v>
       </c>
-      <c r="E846" s="0" t="s">
+      <c r="F846" s="0" t="s">
         <v>3893</v>
-      </c>
-      <c r="F846" s="0" t="s">
-        <v>3894</v>
       </c>
       <c r="G846" s="0" t="s">
         <v>26</v>
@@ -64864,7 +64861,7 @@
         <v>10</v>
       </c>
       <c r="L846" s="0" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="M846" s="0" t="s">
         <v>44</v>
@@ -64896,19 +64893,19 @@
         <v>9717</v>
       </c>
       <c r="B847" s="0" t="s">
+        <v>3895</v>
+      </c>
+      <c r="C847" s="0" t="s">
         <v>3896</v>
       </c>
-      <c r="C847" s="0" t="s">
+      <c r="D847" s="0" t="s">
         <v>3897</v>
       </c>
-      <c r="D847" s="0" t="s">
+      <c r="E847" s="0" t="s">
         <v>3898</v>
       </c>
-      <c r="E847" s="0" t="s">
+      <c r="F847" s="0" t="s">
         <v>3899</v>
-      </c>
-      <c r="F847" s="0" t="s">
-        <v>3900</v>
       </c>
       <c r="G847" s="0" t="s">
         <v>26</v>
@@ -64955,19 +64952,19 @@
         <v>8710</v>
       </c>
       <c r="B848" s="0" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C848" s="0" t="s">
         <v>3901</v>
       </c>
-      <c r="C848" s="0" t="s">
+      <c r="D848" s="0" t="s">
         <v>3902</v>
       </c>
-      <c r="D848" s="0" t="s">
+      <c r="E848" s="0" t="s">
         <v>3903</v>
       </c>
-      <c r="E848" s="0" t="s">
+      <c r="F848" s="0" t="s">
         <v>3904</v>
-      </c>
-      <c r="F848" s="0" t="s">
-        <v>3905</v>
       </c>
       <c r="G848" s="0" t="s">
         <v>26</v>
@@ -64985,7 +64982,7 @@
         <v>13.4</v>
       </c>
       <c r="L848" s="0" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="M848" s="0" t="s">
         <v>147</v>
@@ -65017,7 +65014,7 @@
         <v>9686</v>
       </c>
       <c r="B849" s="0" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="C849" s="0" t="s">
         <v>3211</v>
@@ -65026,10 +65023,10 @@
         <v>3212</v>
       </c>
       <c r="E849" s="0" t="s">
+        <v>3907</v>
+      </c>
+      <c r="F849" s="0" t="s">
         <v>3908</v>
-      </c>
-      <c r="F849" s="0" t="s">
-        <v>3909</v>
       </c>
       <c r="G849" s="0" t="s">
         <v>26</v>
@@ -65047,7 +65044,7 @@
         <v>4.2</v>
       </c>
       <c r="L849" s="0" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="M849" s="0" t="s">
         <v>44</v>
@@ -65079,7 +65076,7 @@
         <v>8560</v>
       </c>
       <c r="B850" s="0" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
       <c r="C850" s="0" t="s">
         <v>977</v>
@@ -65088,10 +65085,10 @@
         <v>978</v>
       </c>
       <c r="E850" s="0" t="s">
+        <v>3911</v>
+      </c>
+      <c r="F850" s="0" t="s">
         <v>3912</v>
-      </c>
-      <c r="F850" s="0" t="s">
-        <v>3913</v>
       </c>
       <c r="G850" s="0" t="s">
         <v>26</v>
@@ -65109,7 +65106,7 @@
         <v>18</v>
       </c>
       <c r="L850" s="0" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="M850" s="0" t="s">
         <v>44</v>
@@ -65141,7 +65138,7 @@
         <v>8561</v>
       </c>
       <c r="B851" s="0" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="C851" s="0" t="s">
         <v>977</v>
@@ -65150,10 +65147,10 @@
         <v>978</v>
       </c>
       <c r="E851" s="0" t="s">
+        <v>3915</v>
+      </c>
+      <c r="F851" s="0" t="s">
         <v>3916</v>
-      </c>
-      <c r="F851" s="0" t="s">
-        <v>3917</v>
       </c>
       <c r="G851" s="0" t="s">
         <v>26</v>
@@ -65171,7 +65168,7 @@
         <v>16</v>
       </c>
       <c r="L851" s="0" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="M851" s="0" t="s">
         <v>44</v>
@@ -65203,7 +65200,7 @@
         <v>8562</v>
       </c>
       <c r="B852" s="0" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="C852" s="0" t="s">
         <v>977</v>
@@ -65212,10 +65209,10 @@
         <v>978</v>
       </c>
       <c r="E852" s="0" t="s">
+        <v>3919</v>
+      </c>
+      <c r="F852" s="0" t="s">
         <v>3920</v>
-      </c>
-      <c r="F852" s="0" t="s">
-        <v>3921</v>
       </c>
       <c r="G852" s="0" t="s">
         <v>26</v>
@@ -65233,7 +65230,7 @@
         <v>23.9</v>
       </c>
       <c r="L852" s="0" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="M852" s="0" t="s">
         <v>44</v>
@@ -65265,7 +65262,7 @@
         <v>8563</v>
       </c>
       <c r="B853" s="0" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="C853" s="0" t="s">
         <v>977</v>
@@ -65274,10 +65271,10 @@
         <v>978</v>
       </c>
       <c r="E853" s="0" t="s">
+        <v>3923</v>
+      </c>
+      <c r="F853" s="0" t="s">
         <v>3924</v>
-      </c>
-      <c r="F853" s="0" t="s">
-        <v>3925</v>
       </c>
       <c r="G853" s="0" t="s">
         <v>26</v>
@@ -65295,7 +65292,7 @@
         <v>18.75</v>
       </c>
       <c r="L853" s="0" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="M853" s="0" t="s">
         <v>44</v>
@@ -65327,7 +65324,7 @@
         <v>8565</v>
       </c>
       <c r="B854" s="0" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
       <c r="C854" s="0" t="s">
         <v>977</v>
@@ -65336,10 +65333,10 @@
         <v>978</v>
       </c>
       <c r="E854" s="0" t="s">
+        <v>3927</v>
+      </c>
+      <c r="F854" s="0" t="s">
         <v>3928</v>
-      </c>
-      <c r="F854" s="0" t="s">
-        <v>3929</v>
       </c>
       <c r="G854" s="0" t="s">
         <v>26</v>
@@ -65357,7 +65354,7 @@
         <v>15</v>
       </c>
       <c r="L854" s="0" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="M854" s="0" t="s">
         <v>44</v>
@@ -65389,7 +65386,7 @@
         <v>8566</v>
       </c>
       <c r="B855" s="0" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="C855" s="0" t="s">
         <v>977</v>
@@ -65398,10 +65395,10 @@
         <v>978</v>
       </c>
       <c r="E855" s="0" t="s">
+        <v>3931</v>
+      </c>
+      <c r="F855" s="0" t="s">
         <v>3932</v>
-      </c>
-      <c r="F855" s="0" t="s">
-        <v>3933</v>
       </c>
       <c r="G855" s="0" t="s">
         <v>26</v>
@@ -65419,7 +65416,7 @@
         <v>15</v>
       </c>
       <c r="L855" s="0" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="M855" s="0" t="s">
         <v>44</v>
@@ -65451,7 +65448,7 @@
         <v>8567</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="C856" s="0" t="s">
         <v>977</v>
@@ -65460,10 +65457,10 @@
         <v>978</v>
       </c>
       <c r="E856" s="0" t="s">
+        <v>3935</v>
+      </c>
+      <c r="F856" s="0" t="s">
         <v>3936</v>
-      </c>
-      <c r="F856" s="0" t="s">
-        <v>3937</v>
       </c>
       <c r="G856" s="0" t="s">
         <v>26</v>
@@ -65481,7 +65478,7 @@
         <v>20.5</v>
       </c>
       <c r="L856" s="0" t="s">
-        <v>3938</v>
+        <v>3937</v>
       </c>
       <c r="M856" s="0" t="s">
         <v>44</v>
@@ -65513,7 +65510,7 @@
         <v>8575</v>
       </c>
       <c r="B857" s="0" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="C857" s="0" t="s">
         <v>977</v>
@@ -65522,10 +65519,10 @@
         <v>978</v>
       </c>
       <c r="E857" s="0" t="s">
+        <v>3939</v>
+      </c>
+      <c r="F857" s="0" t="s">
         <v>3940</v>
-      </c>
-      <c r="F857" s="0" t="s">
-        <v>3941</v>
       </c>
       <c r="G857" s="0" t="s">
         <v>26</v>
@@ -65543,7 +65540,7 @@
         <v>20</v>
       </c>
       <c r="L857" s="0" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="M857" s="0" t="s">
         <v>44</v>
@@ -65575,7 +65572,7 @@
         <v>9457</v>
       </c>
       <c r="B858" s="0" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="C858" s="0" t="s">
         <v>977</v>
@@ -65584,10 +65581,10 @@
         <v>978</v>
       </c>
       <c r="E858" s="0" t="s">
+        <v>3943</v>
+      </c>
+      <c r="F858" s="0" t="s">
         <v>3944</v>
-      </c>
-      <c r="F858" s="0" t="s">
-        <v>3945</v>
       </c>
       <c r="G858" s="0" t="s">
         <v>26</v>
@@ -65605,7 +65602,7 @@
         <v>22.3</v>
       </c>
       <c r="L858" s="0" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="M858" s="0" t="s">
         <v>85</v>
@@ -65637,7 +65634,7 @@
         <v>8577</v>
       </c>
       <c r="B859" s="0" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
       <c r="C859" s="0" t="s">
         <v>977</v>
@@ -65646,10 +65643,10 @@
         <v>978</v>
       </c>
       <c r="E859" s="0" t="s">
+        <v>3947</v>
+      </c>
+      <c r="F859" s="0" t="s">
         <v>3948</v>
-      </c>
-      <c r="F859" s="0" t="s">
-        <v>3949</v>
       </c>
       <c r="G859" s="0" t="s">
         <v>26</v>
@@ -65667,7 +65664,7 @@
         <v>23.2</v>
       </c>
       <c r="L859" s="0" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="M859" s="0" t="s">
         <v>147</v>
@@ -65699,7 +65696,7 @@
         <v>9545</v>
       </c>
       <c r="B860" s="0" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="C860" s="0" t="s">
         <v>977</v>
@@ -65708,10 +65705,10 @@
         <v>978</v>
       </c>
       <c r="E860" s="0" t="s">
+        <v>3951</v>
+      </c>
+      <c r="F860" s="0" t="s">
         <v>3952</v>
-      </c>
-      <c r="F860" s="0" t="s">
-        <v>3953</v>
       </c>
       <c r="G860" s="0" t="s">
         <v>26</v>
@@ -65758,7 +65755,7 @@
         <v>8578</v>
       </c>
       <c r="B861" s="0" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="C861" s="0" t="s">
         <v>977</v>
@@ -65767,10 +65764,10 @@
         <v>978</v>
       </c>
       <c r="E861" s="0" t="s">
+        <v>3954</v>
+      </c>
+      <c r="F861" s="0" t="s">
         <v>3955</v>
-      </c>
-      <c r="F861" s="0" t="s">
-        <v>3956</v>
       </c>
       <c r="G861" s="0" t="s">
         <v>26</v>
@@ -65788,7 +65785,7 @@
         <v>26.5</v>
       </c>
       <c r="L861" s="0" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="M861" s="0" t="s">
         <v>226</v>
@@ -65820,7 +65817,7 @@
         <v>8579</v>
       </c>
       <c r="B862" s="0" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
       <c r="C862" s="0" t="s">
         <v>977</v>
@@ -65829,10 +65826,10 @@
         <v>978</v>
       </c>
       <c r="E862" s="0" t="s">
+        <v>3958</v>
+      </c>
+      <c r="F862" s="0" t="s">
         <v>3959</v>
-      </c>
-      <c r="F862" s="0" t="s">
-        <v>3960</v>
       </c>
       <c r="G862" s="0" t="s">
         <v>26</v>
@@ -65850,7 +65847,7 @@
         <v>24.5</v>
       </c>
       <c r="L862" s="0" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="M862" s="0" t="s">
         <v>226</v>
@@ -65882,7 +65879,7 @@
         <v>8581</v>
       </c>
       <c r="B863" s="0" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="C863" s="0" t="s">
         <v>977</v>
@@ -65891,10 +65888,10 @@
         <v>978</v>
       </c>
       <c r="E863" s="0" t="s">
+        <v>3962</v>
+      </c>
+      <c r="F863" s="0" t="s">
         <v>3963</v>
-      </c>
-      <c r="F863" s="0" t="s">
-        <v>3964</v>
       </c>
       <c r="G863" s="0" t="s">
         <v>26</v>
@@ -65912,7 +65909,7 @@
         <v>19</v>
       </c>
       <c r="L863" s="0" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="M863" s="0" t="s">
         <v>226</v>
@@ -65944,7 +65941,7 @@
         <v>8588</v>
       </c>
       <c r="B864" s="0" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="C864" s="0" t="s">
         <v>977</v>
@@ -65953,10 +65950,10 @@
         <v>978</v>
       </c>
       <c r="E864" s="0" t="s">
+        <v>3966</v>
+      </c>
+      <c r="F864" s="0" t="s">
         <v>3967</v>
-      </c>
-      <c r="F864" s="0" t="s">
-        <v>3968</v>
       </c>
       <c r="G864" s="0" t="s">
         <v>26</v>
@@ -65974,7 +65971,7 @@
         <v>23</v>
       </c>
       <c r="L864" s="0" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
       <c r="M864" s="0" t="s">
         <v>226</v>
@@ -66006,7 +66003,7 @@
         <v>8590</v>
       </c>
       <c r="B865" s="0" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="C865" s="0" t="s">
         <v>977</v>
@@ -66015,10 +66012,10 @@
         <v>978</v>
       </c>
       <c r="E865" s="0" t="s">
+        <v>3970</v>
+      </c>
+      <c r="F865" s="0" t="s">
         <v>3971</v>
-      </c>
-      <c r="F865" s="0" t="s">
-        <v>3972</v>
       </c>
       <c r="G865" s="0" t="s">
         <v>26</v>
@@ -66036,7 +66033,7 @@
         <v>16.5</v>
       </c>
       <c r="L865" s="0" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="M865" s="0" t="s">
         <v>147</v>
@@ -66068,7 +66065,7 @@
         <v>8595</v>
       </c>
       <c r="B866" s="0" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="C866" s="0" t="s">
         <v>977</v>
@@ -66077,10 +66074,10 @@
         <v>978</v>
       </c>
       <c r="E866" s="0" t="s">
+        <v>3974</v>
+      </c>
+      <c r="F866" s="0" t="s">
         <v>3975</v>
-      </c>
-      <c r="F866" s="0" t="s">
-        <v>3976</v>
       </c>
       <c r="G866" s="0" t="s">
         <v>26</v>
@@ -66098,7 +66095,7 @@
         <v>21</v>
       </c>
       <c r="L866" s="0" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="M866" s="0" t="s">
         <v>226</v>
@@ -66130,7 +66127,7 @@
         <v>8596</v>
       </c>
       <c r="B867" s="0" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
       <c r="C867" s="0" t="s">
         <v>977</v>
@@ -66139,10 +66136,10 @@
         <v>978</v>
       </c>
       <c r="E867" s="0" t="s">
+        <v>3978</v>
+      </c>
+      <c r="F867" s="0" t="s">
         <v>3979</v>
-      </c>
-      <c r="F867" s="0" t="s">
-        <v>3980</v>
       </c>
       <c r="G867" s="0" t="s">
         <v>26</v>
@@ -66160,7 +66157,7 @@
         <v>22.6</v>
       </c>
       <c r="L867" s="0" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="M867" s="0" t="s">
         <v>226</v>
@@ -66192,7 +66189,7 @@
         <v>8597</v>
       </c>
       <c r="B868" s="0" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="C868" s="0" t="s">
         <v>977</v>
@@ -66201,10 +66198,10 @@
         <v>978</v>
       </c>
       <c r="E868" s="0" t="s">
+        <v>3982</v>
+      </c>
+      <c r="F868" s="0" t="s">
         <v>3983</v>
-      </c>
-      <c r="F868" s="0" t="s">
-        <v>3984</v>
       </c>
       <c r="G868" s="0" t="s">
         <v>26</v>
@@ -66222,7 +66219,7 @@
         <v>31.7</v>
       </c>
       <c r="L868" s="0" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="M868" s="0" t="s">
         <v>226</v>
@@ -66254,7 +66251,7 @@
         <v>8598</v>
       </c>
       <c r="B869" s="0" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="C869" s="0" t="s">
         <v>977</v>
@@ -66263,10 +66260,10 @@
         <v>978</v>
       </c>
       <c r="E869" s="0" t="s">
+        <v>3986</v>
+      </c>
+      <c r="F869" s="0" t="s">
         <v>3987</v>
-      </c>
-      <c r="F869" s="0" t="s">
-        <v>3988</v>
       </c>
       <c r="G869" s="0" t="s">
         <v>26</v>
@@ -66284,7 +66281,7 @@
         <v>24</v>
       </c>
       <c r="L869" s="0" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="M869" s="0" t="s">
         <v>44</v>
@@ -66316,7 +66313,7 @@
         <v>8599</v>
       </c>
       <c r="B870" s="0" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="C870" s="0" t="s">
         <v>977</v>
@@ -66325,10 +66322,10 @@
         <v>978</v>
       </c>
       <c r="E870" s="0" t="s">
+        <v>3990</v>
+      </c>
+      <c r="F870" s="0" t="s">
         <v>3991</v>
-      </c>
-      <c r="F870" s="0" t="s">
-        <v>3992</v>
       </c>
       <c r="G870" s="0" t="s">
         <v>26</v>
@@ -66346,7 +66343,7 @@
         <v>26.5</v>
       </c>
       <c r="L870" s="0" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
       <c r="M870" s="0" t="s">
         <v>44</v>
@@ -66378,7 +66375,7 @@
         <v>8600</v>
       </c>
       <c r="B871" s="0" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
       <c r="C871" s="0" t="s">
         <v>977</v>
@@ -66387,10 +66384,10 @@
         <v>978</v>
       </c>
       <c r="E871" s="0" t="s">
+        <v>3994</v>
+      </c>
+      <c r="F871" s="0" t="s">
         <v>3995</v>
-      </c>
-      <c r="F871" s="0" t="s">
-        <v>3996</v>
       </c>
       <c r="G871" s="0" t="s">
         <v>26</v>
@@ -66408,7 +66405,7 @@
         <v>21</v>
       </c>
       <c r="L871" s="0" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="M871" s="0" t="s">
         <v>44</v>
@@ -66440,7 +66437,7 @@
         <v>9693</v>
       </c>
       <c r="B872" s="0" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="C872" s="0" t="s">
         <v>1936</v>
@@ -66449,10 +66446,10 @@
         <v>1937</v>
       </c>
       <c r="E872" s="0" t="s">
+        <v>3998</v>
+      </c>
+      <c r="F872" s="0" t="s">
         <v>3999</v>
-      </c>
-      <c r="F872" s="0" t="s">
-        <v>4000</v>
       </c>
       <c r="G872" s="0" t="s">
         <v>26</v>
@@ -66502,7 +66499,7 @@
         <v>9973</v>
       </c>
       <c r="B873" s="0" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="C873" s="0" t="s">
         <v>298</v>
@@ -66511,10 +66508,10 @@
         <v>199</v>
       </c>
       <c r="E873" s="0" t="s">
+        <v>4001</v>
+      </c>
+      <c r="F873" s="0" t="s">
         <v>4002</v>
-      </c>
-      <c r="F873" s="0" t="s">
-        <v>4003</v>
       </c>
       <c r="G873" s="0" t="s">
         <v>26</v>
@@ -66532,7 +66529,7 @@
         <v>14</v>
       </c>
       <c r="L873" s="0" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="M873" s="0" t="s">
         <v>85</v>
@@ -66564,7 +66561,7 @@
         <v>8376</v>
       </c>
       <c r="B874" s="0" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="C874" s="0" t="s">
         <v>52</v>
@@ -66573,10 +66570,10 @@
         <v>53</v>
       </c>
       <c r="E874" s="0" t="s">
+        <v>4005</v>
+      </c>
+      <c r="F874" s="0" t="s">
         <v>4006</v>
-      </c>
-      <c r="F874" s="0" t="s">
-        <v>4007</v>
       </c>
       <c r="G874" s="0" t="s">
         <v>26</v>
@@ -66594,7 +66591,7 @@
         <v>83</v>
       </c>
       <c r="L874" s="0" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="M874" s="0" t="s">
         <v>85</v>
@@ -66626,7 +66623,7 @@
         <v>8430</v>
       </c>
       <c r="B875" s="0" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="C875" s="0" t="s">
         <v>52</v>
@@ -66635,10 +66632,10 @@
         <v>53</v>
       </c>
       <c r="E875" s="0" t="s">
+        <v>4009</v>
+      </c>
+      <c r="F875" s="0" t="s">
         <v>4010</v>
-      </c>
-      <c r="F875" s="0" t="s">
-        <v>4011</v>
       </c>
       <c r="G875" s="0" t="s">
         <v>26</v>
@@ -66656,7 +66653,7 @@
         <v>35</v>
       </c>
       <c r="L875" s="0" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="M875" s="0" t="s">
         <v>44</v>
@@ -66688,7 +66685,7 @@
         <v>8621</v>
       </c>
       <c r="B876" s="0" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="C876" s="0" t="s">
         <v>52</v>
@@ -66697,10 +66694,10 @@
         <v>53</v>
       </c>
       <c r="E876" s="0" t="s">
+        <v>4013</v>
+      </c>
+      <c r="F876" s="0" t="s">
         <v>4014</v>
-      </c>
-      <c r="F876" s="0" t="s">
-        <v>4015</v>
       </c>
       <c r="G876" s="0" t="s">
         <v>26</v>
@@ -66718,7 +66715,7 @@
         <v>12</v>
       </c>
       <c r="L876" s="0" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="M876" s="0" t="s">
         <v>44</v>
@@ -66750,7 +66747,7 @@
         <v>8389</v>
       </c>
       <c r="B877" s="0" t="s">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="C877" s="0" t="s">
         <v>52</v>
@@ -66759,10 +66756,10 @@
         <v>53</v>
       </c>
       <c r="E877" s="0" t="s">
+        <v>4017</v>
+      </c>
+      <c r="F877" s="0" t="s">
         <v>4018</v>
-      </c>
-      <c r="F877" s="0" t="s">
-        <v>4019</v>
       </c>
       <c r="G877" s="0" t="s">
         <v>26</v>
@@ -66780,7 +66777,7 @@
         <v>85</v>
       </c>
       <c r="L877" s="0" t="s">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="M877" s="0" t="s">
         <v>147</v>
@@ -66812,7 +66809,7 @@
         <v>8777</v>
       </c>
       <c r="B878" s="0" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="C878" s="0" t="s">
         <v>1337</v>
@@ -66821,10 +66818,10 @@
         <v>1338</v>
       </c>
       <c r="E878" s="0" t="s">
+        <v>4021</v>
+      </c>
+      <c r="F878" s="0" t="s">
         <v>4022</v>
-      </c>
-      <c r="F878" s="0" t="s">
-        <v>4023</v>
       </c>
       <c r="G878" s="0" t="s">
         <v>26</v>
@@ -66874,19 +66871,19 @@
         <v>9576</v>
       </c>
       <c r="B879" s="0" t="s">
+        <v>4023</v>
+      </c>
+      <c r="C879" s="0" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D879" s="0" t="s">
         <v>4024</v>
       </c>
-      <c r="C879" s="0" t="s">
-        <v>4024</v>
-      </c>
-      <c r="D879" s="0" t="s">
+      <c r="E879" s="0" t="s">
         <v>4025</v>
       </c>
-      <c r="E879" s="0" t="s">
+      <c r="F879" s="0" t="s">
         <v>4026</v>
-      </c>
-      <c r="F879" s="0" t="s">
-        <v>4027</v>
       </c>
       <c r="G879" s="0" t="s">
         <v>26</v>
@@ -66933,19 +66930,19 @@
         <v>8549</v>
       </c>
       <c r="B880" s="0" t="s">
+        <v>4027</v>
+      </c>
+      <c r="C880" s="0" t="s">
         <v>4028</v>
       </c>
-      <c r="C880" s="0" t="s">
+      <c r="D880" s="0" t="s">
         <v>4029</v>
       </c>
-      <c r="D880" s="0" t="s">
+      <c r="E880" s="0" t="s">
         <v>4030</v>
       </c>
-      <c r="E880" s="0" t="s">
+      <c r="F880" s="0" t="s">
         <v>4031</v>
-      </c>
-      <c r="F880" s="0" t="s">
-        <v>4032</v>
       </c>
       <c r="G880" s="0" t="s">
         <v>26</v>
@@ -66995,19 +66992,19 @@
         <v>8550</v>
       </c>
       <c r="B881" s="0" t="s">
+        <v>4032</v>
+      </c>
+      <c r="C881" s="0" t="s">
+        <v>4028</v>
+      </c>
+      <c r="D881" s="0" t="s">
+        <v>4029</v>
+      </c>
+      <c r="E881" s="0" t="s">
         <v>4033</v>
       </c>
-      <c r="C881" s="0" t="s">
-        <v>4029</v>
-      </c>
-      <c r="D881" s="0" t="s">
-        <v>4030</v>
-      </c>
-      <c r="E881" s="0" t="s">
-        <v>4034</v>
-      </c>
       <c r="F881" s="0" t="s">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="G881" s="0" t="s">
         <v>26</v>
@@ -67025,7 +67022,7 @@
         <v>12</v>
       </c>
       <c r="L881" s="0" t="s">
-        <v>4035</v>
+        <v>4034</v>
       </c>
       <c r="M881" s="0" t="s">
         <v>44</v>
@@ -67057,19 +67054,19 @@
         <v>8551</v>
       </c>
       <c r="B882" s="0" t="s">
+        <v>4035</v>
+      </c>
+      <c r="C882" s="0" t="s">
+        <v>4028</v>
+      </c>
+      <c r="D882" s="0" t="s">
+        <v>4029</v>
+      </c>
+      <c r="E882" s="0" t="s">
         <v>4036</v>
       </c>
-      <c r="C882" s="0" t="s">
-        <v>4029</v>
-      </c>
-      <c r="D882" s="0" t="s">
-        <v>4030</v>
-      </c>
-      <c r="E882" s="0" t="s">
+      <c r="F882" s="0" t="s">
         <v>4037</v>
-      </c>
-      <c r="F882" s="0" t="s">
-        <v>4038</v>
       </c>
       <c r="G882" s="0" t="s">
         <v>26</v>
@@ -67087,7 +67084,7 @@
         <v>2</v>
       </c>
       <c r="L882" s="0" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
       <c r="M882" s="0" t="s">
         <v>44</v>
@@ -67119,19 +67116,19 @@
         <v>9029</v>
       </c>
       <c r="B883" s="0" t="s">
+        <v>4039</v>
+      </c>
+      <c r="C883" s="0" t="s">
         <v>4040</v>
       </c>
-      <c r="C883" s="0" t="s">
+      <c r="D883" s="0" t="s">
         <v>4041</v>
       </c>
-      <c r="D883" s="0" t="s">
+      <c r="E883" s="0" t="s">
         <v>4042</v>
       </c>
-      <c r="E883" s="0" t="s">
+      <c r="F883" s="0" t="s">
         <v>4043</v>
-      </c>
-      <c r="F883" s="0" t="s">
-        <v>4044</v>
       </c>
       <c r="G883" s="0" t="s">
         <v>26</v>
@@ -67149,7 +67146,7 @@
         <v>18</v>
       </c>
       <c r="L883" s="0" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M883" s="0" t="s">
         <v>147</v>
@@ -67181,19 +67178,19 @@
         <v>9030</v>
       </c>
       <c r="B884" s="0" t="s">
+        <v>4045</v>
+      </c>
+      <c r="C884" s="0" t="s">
+        <v>4040</v>
+      </c>
+      <c r="D884" s="0" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E884" s="0" t="s">
         <v>4046</v>
       </c>
-      <c r="C884" s="0" t="s">
-        <v>4041</v>
-      </c>
-      <c r="D884" s="0" t="s">
-        <v>4042</v>
-      </c>
-      <c r="E884" s="0" t="s">
+      <c r="F884" s="0" t="s">
         <v>4047</v>
-      </c>
-      <c r="F884" s="0" t="s">
-        <v>4048</v>
       </c>
       <c r="G884" s="0" t="s">
         <v>26</v>
@@ -67211,7 +67208,7 @@
         <v>18</v>
       </c>
       <c r="L884" s="0" t="s">
-        <v>4049</v>
+        <v>4048</v>
       </c>
       <c r="M884" s="0" t="s">
         <v>147</v>
@@ -67243,19 +67240,19 @@
         <v>9031</v>
       </c>
       <c r="B885" s="0" t="s">
+        <v>4049</v>
+      </c>
+      <c r="C885" s="0" t="s">
+        <v>4040</v>
+      </c>
+      <c r="D885" s="0" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E885" s="0" t="s">
         <v>4050</v>
       </c>
-      <c r="C885" s="0" t="s">
-        <v>4041</v>
-      </c>
-      <c r="D885" s="0" t="s">
-        <v>4042</v>
-      </c>
-      <c r="E885" s="0" t="s">
+      <c r="F885" s="0" t="s">
         <v>4051</v>
-      </c>
-      <c r="F885" s="0" t="s">
-        <v>4052</v>
       </c>
       <c r="G885" s="0" t="s">
         <v>26</v>
@@ -67273,7 +67270,7 @@
         <v>15</v>
       </c>
       <c r="L885" s="0" t="s">
-        <v>4053</v>
+        <v>4052</v>
       </c>
       <c r="M885" s="0" t="s">
         <v>44</v>
@@ -67305,19 +67302,19 @@
         <v>9032</v>
       </c>
       <c r="B886" s="0" t="s">
+        <v>4053</v>
+      </c>
+      <c r="C886" s="0" t="s">
+        <v>4040</v>
+      </c>
+      <c r="D886" s="0" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E886" s="0" t="s">
         <v>4054</v>
       </c>
-      <c r="C886" s="0" t="s">
-        <v>4041</v>
-      </c>
-      <c r="D886" s="0" t="s">
-        <v>4042</v>
-      </c>
-      <c r="E886" s="0" t="s">
+      <c r="F886" s="0" t="s">
         <v>4055</v>
-      </c>
-      <c r="F886" s="0" t="s">
-        <v>4056</v>
       </c>
       <c r="G886" s="0" t="s">
         <v>26</v>
@@ -67335,7 +67332,7 @@
         <v>20</v>
       </c>
       <c r="L886" s="0" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="M886" s="0" t="s">
         <v>44</v>
@@ -67367,19 +67364,19 @@
         <v>9709</v>
       </c>
       <c r="B887" s="0" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C887" s="0" t="s">
         <v>4058</v>
-      </c>
-      <c r="C887" s="0" t="s">
-        <v>4059</v>
       </c>
       <c r="D887" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E887" s="0" t="s">
+        <v>4059</v>
+      </c>
+      <c r="F887" s="0" t="s">
         <v>4060</v>
-      </c>
-      <c r="F887" s="0" t="s">
-        <v>4061</v>
       </c>
       <c r="G887" s="0" t="s">
         <v>26</v>
@@ -67426,31 +67423,31 @@
         <v>8300</v>
       </c>
       <c r="B888" s="0" t="s">
+        <v>4061</v>
+      </c>
+      <c r="C888" s="0" t="s">
         <v>4062</v>
       </c>
-      <c r="C888" s="0" t="s">
+      <c r="D888" s="0" t="s">
         <v>4063</v>
       </c>
-      <c r="D888" s="0" t="s">
+      <c r="E888" s="0" t="s">
         <v>4064</v>
       </c>
-      <c r="E888" s="0" t="s">
+      <c r="F888" s="0" t="s">
         <v>4065</v>
       </c>
-      <c r="F888" s="0" t="s">
+      <c r="G888" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H888" s="0" t="s">
         <v>4066</v>
-      </c>
-      <c r="G888" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H888" s="0" t="s">
-        <v>4067</v>
       </c>
       <c r="I888" s="0" t="s">
         <v>663</v>
       </c>
       <c r="J888" s="0" t="s">
-        <v>4068</v>
+        <v>4067</v>
       </c>
       <c r="K888" s="0">
         <v>2</v>
@@ -67488,25 +67485,25 @@
         <v>8747</v>
       </c>
       <c r="B889" s="0" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="C889" s="0" t="s">
+        <v>4068</v>
+      </c>
+      <c r="D889" s="0" t="s">
         <v>4069</v>
       </c>
-      <c r="D889" s="0" t="s">
+      <c r="E889" s="0" t="s">
         <v>4070</v>
       </c>
-      <c r="E889" s="0" t="s">
+      <c r="F889" s="0" t="s">
         <v>4071</v>
       </c>
-      <c r="F889" s="0" t="s">
+      <c r="G889" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H889" s="0" t="s">
         <v>4072</v>
-      </c>
-      <c r="G889" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H889" s="0" t="s">
-        <v>4073</v>
       </c>
       <c r="I889" s="0" t="s">
         <v>70</v>
@@ -67518,7 +67515,7 @@
         <v>3</v>
       </c>
       <c r="L889" s="0" t="s">
-        <v>4074</v>
+        <v>4073</v>
       </c>
       <c r="M889" s="0" t="s">
         <v>44</v>
@@ -67550,25 +67547,25 @@
         <v>8546</v>
       </c>
       <c r="B890" s="0" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="C890" s="0" t="s">
+        <v>4074</v>
+      </c>
+      <c r="D890" s="0" t="s">
         <v>4075</v>
       </c>
-      <c r="D890" s="0" t="s">
+      <c r="E890" s="0" t="s">
         <v>4076</v>
       </c>
-      <c r="E890" s="0" t="s">
+      <c r="F890" s="0" t="s">
         <v>4077</v>
       </c>
-      <c r="F890" s="0" t="s">
+      <c r="G890" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H890" s="0" t="s">
         <v>4078</v>
-      </c>
-      <c r="G890" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H890" s="0" t="s">
-        <v>4079</v>
       </c>
       <c r="I890" s="0" t="s">
         <v>70</v>
@@ -67580,7 +67577,7 @@
         <v>7</v>
       </c>
       <c r="L890" s="0" t="s">
-        <v>4080</v>
+        <v>4079</v>
       </c>
       <c r="M890" s="0" t="s">
         <v>85</v>
@@ -67612,25 +67609,25 @@
         <v>8489</v>
       </c>
       <c r="B891" s="0" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="C891" s="0" t="s">
+        <v>4080</v>
+      </c>
+      <c r="D891" s="0" t="s">
         <v>4081</v>
       </c>
-      <c r="D891" s="0" t="s">
+      <c r="E891" s="0" t="s">
         <v>4082</v>
       </c>
-      <c r="E891" s="0" t="s">
+      <c r="F891" s="0" t="s">
         <v>4083</v>
       </c>
-      <c r="F891" s="0" t="s">
+      <c r="G891" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H891" s="0" t="s">
         <v>4084</v>
-      </c>
-      <c r="G891" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H891" s="0" t="s">
-        <v>4085</v>
       </c>
       <c r="I891" s="0" t="s">
         <v>70</v>
@@ -67642,7 +67639,7 @@
         <v>12</v>
       </c>
       <c r="L891" s="0" t="s">
-        <v>4086</v>
+        <v>4085</v>
       </c>
       <c r="M891" s="0" t="s">
         <v>226</v>
@@ -67674,25 +67671,25 @@
         <v>8748</v>
       </c>
       <c r="B892" s="0" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C892" s="0" t="s">
+        <v>4068</v>
+      </c>
+      <c r="D892" s="0" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E892" s="0" t="s">
         <v>4087</v>
       </c>
-      <c r="C892" s="0" t="s">
-        <v>4069</v>
-      </c>
-      <c r="D892" s="0" t="s">
-        <v>4070</v>
-      </c>
-      <c r="E892" s="0" t="s">
+      <c r="F892" s="0" t="s">
         <v>4088</v>
       </c>
-      <c r="F892" s="0" t="s">
-        <v>4089</v>
-      </c>
       <c r="G892" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H892" s="0" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="I892" s="0" t="s">
         <v>70</v>
@@ -67736,19 +67733,19 @@
         <v>8610</v>
       </c>
       <c r="B893" s="0" t="s">
+        <v>4089</v>
+      </c>
+      <c r="C893" s="0" t="s">
         <v>4090</v>
       </c>
-      <c r="C893" s="0" t="s">
+      <c r="D893" s="0" t="s">
         <v>4091</v>
       </c>
-      <c r="D893" s="0" t="s">
+      <c r="E893" s="0" t="s">
         <v>4092</v>
       </c>
-      <c r="E893" s="0" t="s">
+      <c r="F893" s="0" t="s">
         <v>4093</v>
-      </c>
-      <c r="F893" s="0" t="s">
-        <v>4094</v>
       </c>
       <c r="G893" s="0" t="s">
         <v>26</v>
@@ -67766,7 +67763,7 @@
         <v>14.4</v>
       </c>
       <c r="L893" s="0" t="s">
-        <v>4095</v>
+        <v>4094</v>
       </c>
       <c r="M893" s="0" t="s">
         <v>147</v>
@@ -67798,7 +67795,7 @@
         <v>8434</v>
       </c>
       <c r="B894" s="0" t="s">
-        <v>4096</v>
+        <v>4095</v>
       </c>
       <c r="C894" s="0" t="s">
         <v>1571</v>
@@ -67807,10 +67804,10 @@
         <v>1572</v>
       </c>
       <c r="E894" s="0" t="s">
+        <v>4096</v>
+      </c>
+      <c r="F894" s="0" t="s">
         <v>4097</v>
-      </c>
-      <c r="F894" s="0" t="s">
-        <v>4098</v>
       </c>
       <c r="G894" s="0" t="s">
         <v>26</v>
@@ -67828,7 +67825,7 @@
         <v>15</v>
       </c>
       <c r="L894" s="0" t="s">
-        <v>4099</v>
+        <v>4098</v>
       </c>
       <c r="M894" s="0" t="s">
         <v>44</v>
@@ -67860,7 +67857,7 @@
         <v>8436</v>
       </c>
       <c r="B895" s="0" t="s">
-        <v>4100</v>
+        <v>4099</v>
       </c>
       <c r="C895" s="0" t="s">
         <v>1571</v>
@@ -67869,10 +67866,10 @@
         <v>1572</v>
       </c>
       <c r="E895" s="0" t="s">
+        <v>4100</v>
+      </c>
+      <c r="F895" s="0" t="s">
         <v>4101</v>
-      </c>
-      <c r="F895" s="0" t="s">
-        <v>4102</v>
       </c>
       <c r="G895" s="0" t="s">
         <v>26</v>
@@ -67890,7 +67887,7 @@
         <v>30</v>
       </c>
       <c r="L895" s="0" t="s">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="M895" s="0" t="s">
         <v>44</v>
@@ -67922,7 +67919,7 @@
         <v>8437</v>
       </c>
       <c r="B896" s="0" t="s">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="C896" s="0" t="s">
         <v>1571</v>
@@ -67931,10 +67928,10 @@
         <v>1572</v>
       </c>
       <c r="E896" s="0" t="s">
+        <v>4104</v>
+      </c>
+      <c r="F896" s="0" t="s">
         <v>4105</v>
-      </c>
-      <c r="F896" s="0" t="s">
-        <v>4106</v>
       </c>
       <c r="G896" s="0" t="s">
         <v>26</v>
@@ -67952,7 +67949,7 @@
         <v>11.8</v>
       </c>
       <c r="L896" s="0" t="s">
-        <v>4107</v>
+        <v>4106</v>
       </c>
       <c r="M896" s="0" t="s">
         <v>44</v>
@@ -67984,7 +67981,7 @@
         <v>8438</v>
       </c>
       <c r="B897" s="0" t="s">
-        <v>4108</v>
+        <v>4107</v>
       </c>
       <c r="C897" s="0" t="s">
         <v>1571</v>
@@ -67993,10 +67990,10 @@
         <v>1572</v>
       </c>
       <c r="E897" s="0" t="s">
+        <v>4108</v>
+      </c>
+      <c r="F897" s="0" t="s">
         <v>4109</v>
-      </c>
-      <c r="F897" s="0" t="s">
-        <v>4110</v>
       </c>
       <c r="G897" s="0" t="s">
         <v>26</v>
@@ -68014,7 +68011,7 @@
         <v>58</v>
       </c>
       <c r="L897" s="0" t="s">
-        <v>4111</v>
+        <v>4110</v>
       </c>
       <c r="M897" s="0" t="s">
         <v>85</v>
@@ -68046,19 +68043,19 @@
         <v>8855</v>
       </c>
       <c r="B898" s="0" t="s">
+        <v>4111</v>
+      </c>
+      <c r="C898" s="0" t="s">
         <v>4112</v>
-      </c>
-      <c r="C898" s="0" t="s">
-        <v>4113</v>
       </c>
       <c r="D898" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E898" s="0" t="s">
+        <v>4113</v>
+      </c>
+      <c r="F898" s="0" t="s">
         <v>4114</v>
-      </c>
-      <c r="F898" s="0" t="s">
-        <v>4115</v>
       </c>
       <c r="G898" s="0" t="s">
         <v>26</v>
@@ -68076,7 +68073,7 @@
         <v>15</v>
       </c>
       <c r="L898" s="0" t="s">
-        <v>4116</v>
+        <v>4115</v>
       </c>
       <c r="M898" s="0" t="s">
         <v>85</v>
@@ -68108,7 +68105,7 @@
         <v>9051</v>
       </c>
       <c r="B899" s="0" t="s">
-        <v>4117</v>
+        <v>4116</v>
       </c>
       <c r="C899" s="0" t="s">
         <v>3140</v>
@@ -68117,10 +68114,10 @@
         <v>3141</v>
       </c>
       <c r="E899" s="0" t="s">
+        <v>4117</v>
+      </c>
+      <c r="F899" s="0" t="s">
         <v>4118</v>
-      </c>
-      <c r="F899" s="0" t="s">
-        <v>4119</v>
       </c>
       <c r="G899" s="0" t="s">
         <v>699</v>
@@ -68138,7 +68135,7 @@
         <v>36</v>
       </c>
       <c r="L899" s="0" t="s">
-        <v>4120</v>
+        <v>4119</v>
       </c>
       <c r="M899" s="0" t="s">
         <v>44</v>
@@ -68170,7 +68167,7 @@
         <v>8249</v>
       </c>
       <c r="B900" s="0" t="s">
-        <v>4121</v>
+        <v>4120</v>
       </c>
       <c r="C900" s="0" t="s">
         <v>52</v>
@@ -68179,10 +68176,10 @@
         <v>53</v>
       </c>
       <c r="E900" s="0" t="s">
+        <v>4121</v>
+      </c>
+      <c r="F900" s="0" t="s">
         <v>4122</v>
-      </c>
-      <c r="F900" s="0" t="s">
-        <v>4123</v>
       </c>
       <c r="G900" s="0" t="s">
         <v>26</v>
@@ -68200,7 +68197,7 @@
         <v>25</v>
       </c>
       <c r="L900" s="0" t="s">
-        <v>4124</v>
+        <v>4123</v>
       </c>
       <c r="M900" s="0" t="s">
         <v>44</v>
@@ -68232,19 +68229,19 @@
         <v>9897</v>
       </c>
       <c r="B901" s="0" t="s">
+        <v>4124</v>
+      </c>
+      <c r="C901" s="0" t="s">
         <v>4125</v>
-      </c>
-      <c r="C901" s="0" t="s">
-        <v>4126</v>
       </c>
       <c r="D901" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E901" s="0" t="s">
+        <v>4126</v>
+      </c>
+      <c r="F901" s="0" t="s">
         <v>4127</v>
-      </c>
-      <c r="F901" s="0" t="s">
-        <v>4128</v>
       </c>
       <c r="G901" s="0" t="s">
         <v>26</v>
@@ -68291,7 +68288,7 @@
         <v>8870</v>
       </c>
       <c r="B902" s="0" t="s">
-        <v>4129</v>
+        <v>4128</v>
       </c>
       <c r="C902" s="0" t="s">
         <v>1844</v>
@@ -68300,10 +68297,10 @@
         <v>1845</v>
       </c>
       <c r="E902" s="0" t="s">
+        <v>4129</v>
+      </c>
+      <c r="F902" s="0" t="s">
         <v>4130</v>
-      </c>
-      <c r="F902" s="0" t="s">
-        <v>4131</v>
       </c>
       <c r="G902" s="0" t="s">
         <v>26</v>
@@ -68321,7 +68318,7 @@
         <v>28</v>
       </c>
       <c r="L902" s="0" t="s">
-        <v>4132</v>
+        <v>4131</v>
       </c>
       <c r="M902" s="0" t="s">
         <v>226</v>
@@ -68353,19 +68350,19 @@
         <v>9753</v>
       </c>
       <c r="B903" s="0" t="s">
+        <v>4132</v>
+      </c>
+      <c r="C903" s="0" t="s">
         <v>4133</v>
-      </c>
-      <c r="C903" s="0" t="s">
-        <v>4134</v>
       </c>
       <c r="D903" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E903" s="0" t="s">
+        <v>4134</v>
+      </c>
+      <c r="F903" s="0" t="s">
         <v>4135</v>
-      </c>
-      <c r="F903" s="0" t="s">
-        <v>4136</v>
       </c>
       <c r="G903" s="0" t="s">
         <v>26</v>
@@ -68412,19 +68409,19 @@
         <v>9849</v>
       </c>
       <c r="B904" s="0" t="s">
-        <v>4137</v>
+        <v>4136</v>
       </c>
       <c r="C904" s="0" t="s">
-        <v>4134</v>
+        <v>4133</v>
       </c>
       <c r="D904" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E904" s="0" t="s">
+        <v>4137</v>
+      </c>
+      <c r="F904" s="0" t="s">
         <v>4138</v>
-      </c>
-      <c r="F904" s="0" t="s">
-        <v>4139</v>
       </c>
       <c r="G904" s="0" t="s">
         <v>26</v>
@@ -68471,25 +68468,25 @@
         <v>8951</v>
       </c>
       <c r="B905" s="0" t="s">
+        <v>4139</v>
+      </c>
+      <c r="C905" s="0" t="s">
         <v>4140</v>
       </c>
-      <c r="C905" s="0" t="s">
+      <c r="D905" s="0" t="s">
         <v>4141</v>
       </c>
-      <c r="D905" s="0" t="s">
+      <c r="E905" s="0" t="s">
         <v>4142</v>
       </c>
-      <c r="E905" s="0" t="s">
+      <c r="F905" s="0" t="s">
         <v>4143</v>
       </c>
-      <c r="F905" s="0" t="s">
+      <c r="G905" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H905" s="0" t="s">
         <v>4144</v>
-      </c>
-      <c r="G905" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H905" s="0" t="s">
-        <v>4145</v>
       </c>
       <c r="I905" s="0" t="s">
         <v>70</v>
@@ -68501,7 +68498,7 @@
         <v>14.8</v>
       </c>
       <c r="L905" s="0" t="s">
-        <v>4146</v>
+        <v>4145</v>
       </c>
       <c r="M905" s="0" t="s">
         <v>44</v>
@@ -68533,7 +68530,7 @@
         <v>8204</v>
       </c>
       <c r="B906" s="0" t="s">
-        <v>4147</v>
+        <v>4146</v>
       </c>
       <c r="C906" s="0" t="s">
         <v>52</v>
@@ -68542,10 +68539,10 @@
         <v>53</v>
       </c>
       <c r="E906" s="0" t="s">
+        <v>4147</v>
+      </c>
+      <c r="F906" s="0" t="s">
         <v>4148</v>
-      </c>
-      <c r="F906" s="0" t="s">
-        <v>4149</v>
       </c>
       <c r="G906" s="0" t="s">
         <v>26</v>
@@ -68563,7 +68560,7 @@
         <v>64.9</v>
       </c>
       <c r="L906" s="0" t="s">
-        <v>4150</v>
+        <v>4149</v>
       </c>
       <c r="M906" s="0" t="s">
         <v>44</v>
@@ -68595,7 +68592,7 @@
         <v>8601</v>
       </c>
       <c r="B907" s="0" t="s">
-        <v>4151</v>
+        <v>4150</v>
       </c>
       <c r="C907" s="0" t="s">
         <v>977</v>
@@ -68604,10 +68601,10 @@
         <v>978</v>
       </c>
       <c r="E907" s="0" t="s">
+        <v>4151</v>
+      </c>
+      <c r="F907" s="0" t="s">
         <v>4152</v>
-      </c>
-      <c r="F907" s="0" t="s">
-        <v>4153</v>
       </c>
       <c r="G907" s="0" t="s">
         <v>26</v>
@@ -68625,7 +68622,7 @@
         <v>21.9</v>
       </c>
       <c r="L907" s="0" t="s">
-        <v>4154</v>
+        <v>4153</v>
       </c>
       <c r="M907" s="0" t="s">
         <v>44</v>
@@ -68657,7 +68654,7 @@
         <v>8602</v>
       </c>
       <c r="B908" s="0" t="s">
-        <v>4155</v>
+        <v>4154</v>
       </c>
       <c r="C908" s="0" t="s">
         <v>977</v>
@@ -68666,10 +68663,10 @@
         <v>978</v>
       </c>
       <c r="E908" s="0" t="s">
+        <v>4155</v>
+      </c>
+      <c r="F908" s="0" t="s">
         <v>4156</v>
-      </c>
-      <c r="F908" s="0" t="s">
-        <v>4157</v>
       </c>
       <c r="G908" s="0" t="s">
         <v>26</v>
@@ -68687,7 +68684,7 @@
         <v>19.5</v>
       </c>
       <c r="L908" s="0" t="s">
-        <v>4158</v>
+        <v>4157</v>
       </c>
       <c r="M908" s="0" t="s">
         <v>44</v>
@@ -68719,7 +68716,7 @@
         <v>9289</v>
       </c>
       <c r="B909" s="0" t="s">
-        <v>4159</v>
+        <v>4158</v>
       </c>
       <c r="C909" s="0" t="s">
         <v>977</v>
@@ -68728,10 +68725,10 @@
         <v>978</v>
       </c>
       <c r="E909" s="0" t="s">
+        <v>4159</v>
+      </c>
+      <c r="F909" s="0" t="s">
         <v>4160</v>
-      </c>
-      <c r="F909" s="0" t="s">
-        <v>4161</v>
       </c>
       <c r="G909" s="0" t="s">
         <v>26</v>
@@ -68749,7 +68746,7 @@
         <v>17</v>
       </c>
       <c r="L909" s="0" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="M909" s="0" t="s">
         <v>85</v>
@@ -68781,19 +68778,19 @@
         <v>9446</v>
       </c>
       <c r="B910" s="0" t="s">
+        <v>4162</v>
+      </c>
+      <c r="C910" s="0" t="s">
         <v>4163</v>
       </c>
-      <c r="C910" s="0" t="s">
+      <c r="D910" s="0" t="s">
         <v>4164</v>
       </c>
-      <c r="D910" s="0" t="s">
+      <c r="E910" s="0" t="s">
         <v>4165</v>
       </c>
-      <c r="E910" s="0" t="s">
+      <c r="F910" s="0" t="s">
         <v>4166</v>
-      </c>
-      <c r="F910" s="0" t="s">
-        <v>4167</v>
       </c>
       <c r="G910" s="0" t="s">
         <v>26</v>
@@ -68843,19 +68840,19 @@
         <v>9015</v>
       </c>
       <c r="B911" s="0" t="s">
-        <v>4163</v>
+        <v>4162</v>
       </c>
       <c r="C911" s="0" t="s">
+        <v>4167</v>
+      </c>
+      <c r="D911" s="0" t="s">
         <v>4168</v>
       </c>
-      <c r="D911" s="0" t="s">
-        <v>4169</v>
-      </c>
       <c r="E911" s="0" t="s">
+        <v>4165</v>
+      </c>
+      <c r="F911" s="0" t="s">
         <v>4166</v>
-      </c>
-      <c r="F911" s="0" t="s">
-        <v>4167</v>
       </c>
       <c r="G911" s="0" t="s">
         <v>26</v>
@@ -68905,19 +68902,19 @@
         <v>9447</v>
       </c>
       <c r="B912" s="0" t="s">
+        <v>4169</v>
+      </c>
+      <c r="C912" s="0" t="s">
+        <v>4163</v>
+      </c>
+      <c r="D912" s="0" t="s">
+        <v>4164</v>
+      </c>
+      <c r="E912" s="0" t="s">
         <v>4170</v>
       </c>
-      <c r="C912" s="0" t="s">
-        <v>4164</v>
-      </c>
-      <c r="D912" s="0" t="s">
-        <v>4165</v>
-      </c>
-      <c r="E912" s="0" t="s">
+      <c r="F912" s="0" t="s">
         <v>4171</v>
-      </c>
-      <c r="F912" s="0" t="s">
-        <v>4172</v>
       </c>
       <c r="G912" s="0" t="s">
         <v>26</v>
@@ -68967,19 +68964,19 @@
         <v>9016</v>
       </c>
       <c r="B913" s="0" t="s">
+        <v>4169</v>
+      </c>
+      <c r="C913" s="0" t="s">
+        <v>4167</v>
+      </c>
+      <c r="D913" s="0" t="s">
+        <v>4168</v>
+      </c>
+      <c r="E913" s="0" t="s">
         <v>4170</v>
       </c>
-      <c r="C913" s="0" t="s">
-        <v>4168</v>
-      </c>
-      <c r="D913" s="0" t="s">
-        <v>4169</v>
-      </c>
-      <c r="E913" s="0" t="s">
+      <c r="F913" s="0" t="s">
         <v>4171</v>
-      </c>
-      <c r="F913" s="0" t="s">
-        <v>4172</v>
       </c>
       <c r="G913" s="0" t="s">
         <v>26</v>
@@ -69029,19 +69026,19 @@
         <v>9836</v>
       </c>
       <c r="B914" s="0" t="s">
+        <v>4172</v>
+      </c>
+      <c r="C914" s="0" t="s">
         <v>4173</v>
-      </c>
-      <c r="C914" s="0" t="s">
-        <v>4174</v>
       </c>
       <c r="D914" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E914" s="0" t="s">
+        <v>4174</v>
+      </c>
+      <c r="F914" s="0" t="s">
         <v>4175</v>
-      </c>
-      <c r="F914" s="0" t="s">
-        <v>4176</v>
       </c>
       <c r="G914" s="0" t="s">
         <v>26</v>
@@ -69059,7 +69056,7 @@
         <v>22</v>
       </c>
       <c r="L914" s="0" t="s">
-        <v>4177</v>
+        <v>4176</v>
       </c>
       <c r="M914" s="0" t="s">
         <v>226</v>
@@ -69091,19 +69088,19 @@
         <v>9837</v>
       </c>
       <c r="B915" s="0" t="s">
-        <v>4178</v>
+        <v>4177</v>
       </c>
       <c r="C915" s="0" t="s">
-        <v>4174</v>
+        <v>4173</v>
       </c>
       <c r="D915" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E915" s="0" t="s">
+        <v>4178</v>
+      </c>
+      <c r="F915" s="0" t="s">
         <v>4179</v>
-      </c>
-      <c r="F915" s="0" t="s">
-        <v>4180</v>
       </c>
       <c r="G915" s="0" t="s">
         <v>26</v>
@@ -69121,7 +69118,7 @@
         <v>15</v>
       </c>
       <c r="L915" s="0" t="s">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="M915" s="0" t="s">
         <v>226</v>
@@ -69153,7 +69150,7 @@
         <v>8539</v>
       </c>
       <c r="B916" s="0" t="s">
-        <v>4182</v>
+        <v>4181</v>
       </c>
       <c r="C916" s="0" t="s">
         <v>1710</v>
@@ -69162,16 +69159,16 @@
         <v>1711</v>
       </c>
       <c r="E916" s="0" t="s">
+        <v>4182</v>
+      </c>
+      <c r="F916" s="0" t="s">
         <v>4183</v>
       </c>
-      <c r="F916" s="0" t="s">
+      <c r="G916" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H916" s="0" t="s">
         <v>4184</v>
-      </c>
-      <c r="G916" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H916" s="0" t="s">
-        <v>4185</v>
       </c>
       <c r="I916" s="0" t="s">
         <v>120</v>
@@ -69183,7 +69180,7 @@
         <v>18</v>
       </c>
       <c r="L916" s="0" t="s">
-        <v>4186</v>
+        <v>4185</v>
       </c>
       <c r="M916" s="0" t="s">
         <v>44</v>
@@ -69215,7 +69212,7 @@
         <v>9157</v>
       </c>
       <c r="B917" s="0" t="s">
-        <v>4187</v>
+        <v>4186</v>
       </c>
       <c r="C917" s="0" t="s">
         <v>1502</v>
@@ -69224,10 +69221,10 @@
         <v>1503</v>
       </c>
       <c r="E917" s="0" t="s">
+        <v>4187</v>
+      </c>
+      <c r="F917" s="0" t="s">
         <v>4188</v>
-      </c>
-      <c r="F917" s="0" t="s">
-        <v>4189</v>
       </c>
       <c r="G917" s="0" t="s">
         <v>26</v>
@@ -69245,7 +69242,7 @@
         <v>30</v>
       </c>
       <c r="L917" s="0" t="s">
-        <v>4190</v>
+        <v>4189</v>
       </c>
       <c r="M917" s="0" t="s">
         <v>147</v>
@@ -69277,7 +69274,7 @@
         <v>9471</v>
       </c>
       <c r="B918" s="0" t="s">
-        <v>4191</v>
+        <v>4190</v>
       </c>
       <c r="C918" s="0" t="s">
         <v>1502</v>
@@ -69286,10 +69283,10 @@
         <v>1503</v>
       </c>
       <c r="E918" s="0" t="s">
+        <v>4191</v>
+      </c>
+      <c r="F918" s="0" t="s">
         <v>4192</v>
-      </c>
-      <c r="F918" s="0" t="s">
-        <v>4193</v>
       </c>
       <c r="G918" s="0" t="s">
         <v>26</v>
@@ -69307,7 +69304,7 @@
         <v>31</v>
       </c>
       <c r="L918" s="0" t="s">
-        <v>4194</v>
+        <v>4193</v>
       </c>
       <c r="M918" s="0" t="s">
         <v>147</v>
@@ -69339,7 +69336,7 @@
         <v>9156</v>
       </c>
       <c r="B919" s="0" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="C919" s="0" t="s">
         <v>1502</v>
@@ -69348,10 +69345,10 @@
         <v>1503</v>
       </c>
       <c r="E919" s="0" t="s">
+        <v>4195</v>
+      </c>
+      <c r="F919" s="0" t="s">
         <v>4196</v>
-      </c>
-      <c r="F919" s="0" t="s">
-        <v>4197</v>
       </c>
       <c r="G919" s="0" t="s">
         <v>26</v>
@@ -69369,7 +69366,7 @@
         <v>25</v>
       </c>
       <c r="L919" s="0" t="s">
-        <v>4198</v>
+        <v>4197</v>
       </c>
       <c r="M919" s="0" t="s">
         <v>85</v>
@@ -69401,7 +69398,7 @@
         <v>9158</v>
       </c>
       <c r="B920" s="0" t="s">
-        <v>4199</v>
+        <v>4198</v>
       </c>
       <c r="C920" s="0" t="s">
         <v>1502</v>
@@ -69410,10 +69407,10 @@
         <v>1503</v>
       </c>
       <c r="E920" s="0" t="s">
+        <v>4199</v>
+      </c>
+      <c r="F920" s="0" t="s">
         <v>4200</v>
-      </c>
-      <c r="F920" s="0" t="s">
-        <v>4201</v>
       </c>
       <c r="G920" s="0" t="s">
         <v>26</v>
@@ -69431,7 +69428,7 @@
         <v>20</v>
       </c>
       <c r="L920" s="0" t="s">
-        <v>4202</v>
+        <v>4201</v>
       </c>
       <c r="M920" s="0" t="s">
         <v>85</v>
@@ -69463,25 +69460,25 @@
         <v>9078</v>
       </c>
       <c r="B921" s="0" t="s">
+        <v>4202</v>
+      </c>
+      <c r="C921" s="0" t="s">
         <v>4203</v>
       </c>
-      <c r="C921" s="0" t="s">
+      <c r="D921" s="0" t="s">
         <v>4204</v>
       </c>
-      <c r="D921" s="0" t="s">
+      <c r="E921" s="0" t="s">
         <v>4205</v>
       </c>
-      <c r="E921" s="0" t="s">
+      <c r="F921" s="0" t="s">
         <v>4206</v>
       </c>
-      <c r="F921" s="0" t="s">
+      <c r="G921" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H921" s="0" t="s">
         <v>4207</v>
-      </c>
-      <c r="G921" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H921" s="0" t="s">
-        <v>4208</v>
       </c>
       <c r="I921" s="0" t="s">
         <v>70</v>
@@ -69493,7 +69490,7 @@
         <v>8</v>
       </c>
       <c r="L921" s="0" t="s">
-        <v>4209</v>
+        <v>4208</v>
       </c>
       <c r="M921" s="0" t="s">
         <v>44</v>
@@ -69525,7 +69522,7 @@
         <v>8269</v>
       </c>
       <c r="B922" s="0" t="s">
-        <v>4210</v>
+        <v>4209</v>
       </c>
       <c r="C922" s="0" t="s">
         <v>1541</v>
@@ -69534,16 +69531,16 @@
         <v>53</v>
       </c>
       <c r="E922" s="0" t="s">
+        <v>4210</v>
+      </c>
+      <c r="F922" s="0" t="s">
         <v>4211</v>
       </c>
-      <c r="F922" s="0" t="s">
+      <c r="G922" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H922" s="0" t="s">
         <v>4212</v>
-      </c>
-      <c r="G922" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H922" s="0" t="s">
-        <v>4213</v>
       </c>
       <c r="I922" s="0" t="s">
         <v>57</v>
@@ -69555,7 +69552,7 @@
         <v>8.5</v>
       </c>
       <c r="L922" s="0" t="s">
-        <v>4214</v>
+        <v>4213</v>
       </c>
       <c r="M922" s="0" t="s">
         <v>44</v>
@@ -69587,7 +69584,7 @@
         <v>8786</v>
       </c>
       <c r="B923" s="0" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="C923" s="0" t="s">
         <v>3273</v>
@@ -69596,10 +69593,10 @@
         <v>3274</v>
       </c>
       <c r="E923" s="0" t="s">
+        <v>4215</v>
+      </c>
+      <c r="F923" s="0" t="s">
         <v>4216</v>
-      </c>
-      <c r="F923" s="0" t="s">
-        <v>4217</v>
       </c>
       <c r="G923" s="0" t="s">
         <v>26</v>
@@ -69649,7 +69646,7 @@
         <v>9100</v>
       </c>
       <c r="B924" s="0" t="s">
-        <v>4218</v>
+        <v>4217</v>
       </c>
       <c r="C924" s="0" t="s">
         <v>52</v>
@@ -69658,10 +69655,10 @@
         <v>53</v>
       </c>
       <c r="E924" s="0" t="s">
+        <v>4218</v>
+      </c>
+      <c r="F924" s="0" t="s">
         <v>4219</v>
-      </c>
-      <c r="F924" s="0" t="s">
-        <v>4220</v>
       </c>
       <c r="G924" s="0" t="s">
         <v>26</v>
@@ -69679,7 +69676,7 @@
         <v>35</v>
       </c>
       <c r="L924" s="0" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
       <c r="M924" s="0" t="s">
         <v>147</v>
@@ -69711,7 +69708,7 @@
         <v>10041</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
       <c r="C925" s="0" t="s">
         <v>1615</v>
@@ -69720,10 +69717,10 @@
         <v>199</v>
       </c>
       <c r="E925" s="0" t="s">
+        <v>4222</v>
+      </c>
+      <c r="F925" s="0" t="s">
         <v>4223</v>
-      </c>
-      <c r="F925" s="0" t="s">
-        <v>4224</v>
       </c>
       <c r="G925" s="0" t="s">
         <v>26</v>
@@ -69770,7 +69767,7 @@
         <v>8456</v>
       </c>
       <c r="B926" s="0" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
       <c r="C926" s="0" t="s">
         <v>52</v>
@@ -69779,10 +69776,10 @@
         <v>53</v>
       </c>
       <c r="E926" s="0" t="s">
+        <v>4225</v>
+      </c>
+      <c r="F926" s="0" t="s">
         <v>4226</v>
-      </c>
-      <c r="F926" s="0" t="s">
-        <v>4227</v>
       </c>
       <c r="G926" s="0" t="s">
         <v>26</v>
@@ -69800,7 +69797,7 @@
         <v>45.15</v>
       </c>
       <c r="L926" s="0" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
       <c r="M926" s="0" t="s">
         <v>44</v>
@@ -69832,7 +69829,7 @@
         <v>8457</v>
       </c>
       <c r="B927" s="0" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
       <c r="C927" s="0" t="s">
         <v>52</v>
@@ -69841,10 +69838,10 @@
         <v>53</v>
       </c>
       <c r="E927" s="0" t="s">
+        <v>4229</v>
+      </c>
+      <c r="F927" s="0" t="s">
         <v>4230</v>
-      </c>
-      <c r="F927" s="0" t="s">
-        <v>4231</v>
       </c>
       <c r="G927" s="0" t="s">
         <v>26</v>
@@ -69862,7 +69859,7 @@
         <v>22.5</v>
       </c>
       <c r="L927" s="0" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
       <c r="M927" s="0" t="s">
         <v>44</v>
@@ -69894,19 +69891,19 @@
         <v>8744</v>
       </c>
       <c r="B928" s="0" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C928" s="0" t="s">
         <v>4233</v>
       </c>
-      <c r="C928" s="0" t="s">
+      <c r="D928" s="0" t="s">
         <v>4234</v>
       </c>
-      <c r="D928" s="0" t="s">
+      <c r="E928" s="0" t="s">
         <v>4235</v>
       </c>
-      <c r="E928" s="0" t="s">
+      <c r="F928" s="0" t="s">
         <v>4236</v>
-      </c>
-      <c r="F928" s="0" t="s">
-        <v>4237</v>
       </c>
       <c r="G928" s="0" t="s">
         <v>699</v>
@@ -69924,7 +69921,7 @@
         <v>15.5</v>
       </c>
       <c r="L928" s="0" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
       <c r="M928" s="0" t="s">
         <v>44</v>
@@ -69956,37 +69953,37 @@
         <v>8857</v>
       </c>
       <c r="B929" s="0" t="s">
+        <v>4238</v>
+      </c>
+      <c r="C929" s="0" t="s">
         <v>4239</v>
       </c>
-      <c r="C929" s="0" t="s">
+      <c r="D929" s="0" t="s">
         <v>4240</v>
       </c>
-      <c r="D929" s="0" t="s">
+      <c r="E929" s="0" t="s">
         <v>4241</v>
       </c>
-      <c r="E929" s="0" t="s">
+      <c r="F929" s="0" t="s">
         <v>4242</v>
       </c>
-      <c r="F929" s="0" t="s">
+      <c r="G929" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H929" s="0" t="s">
         <v>4243</v>
-      </c>
-      <c r="G929" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H929" s="0" t="s">
-        <v>4244</v>
       </c>
       <c r="I929" s="0" t="s">
         <v>120</v>
       </c>
       <c r="J929" s="0" t="s">
-        <v>4245</v>
+        <v>4244</v>
       </c>
       <c r="K929" s="0">
         <v>25</v>
       </c>
       <c r="L929" s="0" t="s">
-        <v>4246</v>
+        <v>4245</v>
       </c>
       <c r="M929" s="0" t="s">
         <v>147</v>
@@ -70018,19 +70015,19 @@
         <v>9357</v>
       </c>
       <c r="B930" s="0" t="s">
+        <v>4246</v>
+      </c>
+      <c r="C930" s="0" t="s">
+        <v>4239</v>
+      </c>
+      <c r="D930" s="0" t="s">
+        <v>4240</v>
+      </c>
+      <c r="E930" s="0" t="s">
         <v>4247</v>
       </c>
-      <c r="C930" s="0" t="s">
-        <v>4240</v>
-      </c>
-      <c r="D930" s="0" t="s">
-        <v>4241</v>
-      </c>
-      <c r="E930" s="0" t="s">
+      <c r="F930" s="0" t="s">
         <v>4248</v>
-      </c>
-      <c r="F930" s="0" t="s">
-        <v>4249</v>
       </c>
       <c r="G930" s="0" t="s">
         <v>26</v>
@@ -70042,13 +70039,13 @@
         <v>120</v>
       </c>
       <c r="J930" s="0" t="s">
-        <v>4245</v>
+        <v>4244</v>
       </c>
       <c r="K930" s="0">
         <v>19</v>
       </c>
       <c r="L930" s="0" t="s">
-        <v>4250</v>
+        <v>4249</v>
       </c>
       <c r="M930" s="0" t="s">
         <v>44</v>
@@ -70080,7 +70077,7 @@
         <v>9534</v>
       </c>
       <c r="B931" s="0" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
       <c r="C931" s="0" t="s">
         <v>52</v>
@@ -70089,10 +70086,10 @@
         <v>53</v>
       </c>
       <c r="E931" s="0" t="s">
+        <v>4251</v>
+      </c>
+      <c r="F931" s="0" t="s">
         <v>4252</v>
-      </c>
-      <c r="F931" s="0" t="s">
-        <v>4253</v>
       </c>
       <c r="G931" s="0" t="s">
         <v>26</v>
@@ -70110,7 +70107,7 @@
         <v>70</v>
       </c>
       <c r="L931" s="0" t="s">
-        <v>4254</v>
+        <v>4253</v>
       </c>
       <c r="M931" s="0" t="s">
         <v>147</v>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220516.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222116.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 02:05:26</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 02:21:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222116.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223016.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 02:21:25</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 02:30:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223016.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223916.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 02:30:23</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 02:39:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223916.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224816.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 02:39:45</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 02:48:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224816.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225616.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 02:48:04</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 02:56:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225616.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221416.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 02:56:59</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 03:14:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221416.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223316.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 03:14:23</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 03:33:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223316.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224516.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 03:33:11</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 03:45:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224516.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225316.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 03:45:06</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 03:53:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225316.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220216.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 03:53:28</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 04:02:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220216.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221816.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 04:02:12</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 04:18:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221816.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222716.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 04:18:30</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 04:27:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222716.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223616.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 04:27:32</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 04:36:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223616.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224516.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 04:36:20</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 04:45:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224516.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225416.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 04:45:57</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 04:54:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225416.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220316.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 04:54:21</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 05:03:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220316.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222316.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 05:03:44</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 05:23:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222316.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223216.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 05:23:29</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 05:32:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223216.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224216.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 05:32:17</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 05:42:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224216.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225016.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 05:42:13</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 05:50:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225016.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225916.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 05:50:56</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 05:59:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225916.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221516.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 05:59:44</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 06:15:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221516.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222616.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 06:15:32</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 06:26:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222616.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223516.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 06:26:04</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 06:35:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223516.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224416.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 06:35:42</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 06:44:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224416.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225316.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 06:44:38</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 06:53:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225316.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220216.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 06:53:14</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 07:02:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220216.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222016.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 07:02:08</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 07:20:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222016.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223116.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 07:20:59</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 07:31:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223116.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224016.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 07:31:59</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 07:40:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224016.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224916.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 07:40:59</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 07:49:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224916.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225916.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 07:49:47</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 07:59:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225916.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221416.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 07:59:14</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 08:14:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221416.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222816.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 08:14:48</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 08:28:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222816.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223816.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 08:28:24</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 08:38:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223816.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224716.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 08:38:07</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 08:47:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-16.xlsx
+++ b/sigbm_download_2022-12-16.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224716.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225616.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 16/12/2022 - 08:47:16</t>
+    <t>Informação extraída do SIGBM: 16/12/2022 - 08:56:03</t>
   </si>
   <si>
     <t>ID Barragem</t>
